--- a/projects/4.decorrelation/decorrelation.xlsx
+++ b/projects/4.decorrelation/decorrelation.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingxin/Documents/Github/multiframe/projects/4.decorrelation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashlyn\Documents\GitHub_Files\multi-frame\projects\4.decorrelation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1280" windowWidth="24960" windowHeight="13400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2175" yWindow="1275" windowWidth="24960" windowHeight="13395" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C4Model" sheetId="1" r:id="rId1"/>
-    <sheet name="CVert" sheetId="2" r:id="rId2"/>
+    <sheet name="C4Results" sheetId="3" r:id="rId2"/>
+    <sheet name="CVert" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="536">
   <si>
     <t>method</t>
   </si>
@@ -1606,12 +1607,42 @@
   </si>
   <si>
     <t>'Test141'</t>
+  </si>
+  <si>
+    <t>res (1 Hz)</t>
+  </si>
+  <si>
+    <t>res (10 Hz)</t>
+  </si>
+  <si>
+    <t>res (9 Hz)</t>
+  </si>
+  <si>
+    <t>res (8 Hz)</t>
+  </si>
+  <si>
+    <t>res (7 Hz)</t>
+  </si>
+  <si>
+    <t>res (6 Hz)</t>
+  </si>
+  <si>
+    <t>res (5 Hz)</t>
+  </si>
+  <si>
+    <t>res (4 Hz)</t>
+  </si>
+  <si>
+    <t>res (3 Hz)</t>
+  </si>
+  <si>
+    <t>res (2 Hz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1661,6 +1692,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1931,24 +1965,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -1977,7 +2011,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>30</v>
       </c>
@@ -1997,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A2,"000"),"")</f>
+        <f t="shared" ref="G2:G33" si="0">CONCATENATE("C4Model",TEXT(A2,"000"),"")</f>
         <v>C4Model030</v>
       </c>
       <c r="H2" s="6">
@@ -2007,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -2027,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A3,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model031</v>
       </c>
       <c r="H3" s="6">
@@ -2037,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>32</v>
       </c>
@@ -2057,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A4,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model032</v>
       </c>
       <c r="H4" s="6">
@@ -2067,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>33</v>
       </c>
@@ -2087,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A5,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model033</v>
       </c>
       <c r="H5" s="6">
@@ -2097,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>34</v>
       </c>
@@ -2117,7 +2151,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A6,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model034</v>
       </c>
       <c r="H6" s="6">
@@ -2127,7 +2161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>35</v>
       </c>
@@ -2147,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A7,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model035</v>
       </c>
       <c r="H7" s="6">
@@ -2157,7 +2191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>36</v>
       </c>
@@ -2177,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A8,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model036</v>
       </c>
       <c r="H8" s="6">
@@ -2187,7 +2221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>37</v>
       </c>
@@ -2207,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A9,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model037</v>
       </c>
       <c r="H9" s="6">
@@ -2217,7 +2251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>38</v>
       </c>
@@ -2237,7 +2271,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A10,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model038</v>
       </c>
       <c r="H10" s="6">
@@ -2247,7 +2281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>39</v>
       </c>
@@ -2267,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A11,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model039</v>
       </c>
       <c r="H11" s="6">
@@ -2277,7 +2311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40</v>
       </c>
@@ -2297,7 +2331,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A12,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model040</v>
       </c>
       <c r="H12" s="6">
@@ -2307,7 +2341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41</v>
       </c>
@@ -2327,7 +2361,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A13,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model041</v>
       </c>
       <c r="H13" s="6">
@@ -2337,7 +2371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>42</v>
       </c>
@@ -2357,7 +2391,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A14,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model042</v>
       </c>
       <c r="H14" s="7">
@@ -2367,7 +2401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -2387,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A15,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model043</v>
       </c>
       <c r="H15" s="6">
@@ -2397,7 +2431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44</v>
       </c>
@@ -2417,7 +2451,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A16,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model044</v>
       </c>
       <c r="H16" s="6">
@@ -2427,7 +2461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45</v>
       </c>
@@ -2447,7 +2481,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A17,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model045</v>
       </c>
       <c r="H17" s="6">
@@ -2457,7 +2491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>46</v>
       </c>
@@ -2477,7 +2511,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A18,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model046</v>
       </c>
       <c r="H18" s="6">
@@ -2487,7 +2521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>47</v>
       </c>
@@ -2507,7 +2541,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A19,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model047</v>
       </c>
       <c r="H19" s="6">
@@ -2517,7 +2551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>48</v>
       </c>
@@ -2537,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A20,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model048</v>
       </c>
       <c r="H20" s="6">
@@ -2547,7 +2581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>49</v>
       </c>
@@ -2567,7 +2601,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A21,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model049</v>
       </c>
       <c r="H21" s="6">
@@ -2577,7 +2611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>50</v>
       </c>
@@ -2597,7 +2631,7 @@
         <v>34</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A22,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model050</v>
       </c>
       <c r="H22" s="6">
@@ -2607,7 +2641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>51</v>
       </c>
@@ -2627,7 +2661,7 @@
         <v>34</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A23,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model051</v>
       </c>
       <c r="H23" s="6">
@@ -2637,7 +2671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>52</v>
       </c>
@@ -2657,7 +2691,7 @@
         <v>34</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A24,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model052</v>
       </c>
       <c r="H24" s="6">
@@ -2667,7 +2701,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>53</v>
       </c>
@@ -2687,7 +2721,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A25,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model053</v>
       </c>
       <c r="H25" s="6">
@@ -2697,7 +2731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>54</v>
       </c>
@@ -2717,7 +2751,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A26,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model054</v>
       </c>
       <c r="H26" s="6">
@@ -2727,7 +2761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>55</v>
       </c>
@@ -2747,7 +2781,7 @@
         <v>40</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A27,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model055</v>
       </c>
       <c r="H27" s="6">
@@ -2757,7 +2791,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -2777,7 +2811,7 @@
         <v>40</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A28,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model056</v>
       </c>
       <c r="H28" s="6">
@@ -2787,7 +2821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>57</v>
       </c>
@@ -2807,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A29,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model057</v>
       </c>
       <c r="H29" s="6">
@@ -2817,7 +2851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>58</v>
       </c>
@@ -2837,7 +2871,7 @@
         <v>46</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A30,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model058</v>
       </c>
       <c r="H30" s="6">
@@ -2847,7 +2881,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>59</v>
       </c>
@@ -2867,7 +2901,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A31,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model059</v>
       </c>
       <c r="H31" s="6">
@@ -2877,7 +2911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>60</v>
       </c>
@@ -2897,7 +2931,7 @@
         <v>46</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A32,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model060</v>
       </c>
       <c r="H32" s="6">
@@ -2907,7 +2941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>61</v>
       </c>
@@ -2927,7 +2961,7 @@
         <v>46</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A33,"000"),"")</f>
+        <f t="shared" si="0"/>
         <v>C4Model061</v>
       </c>
       <c r="H33" s="6">
@@ -2937,7 +2971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>62</v>
       </c>
@@ -2957,7 +2991,7 @@
         <v>52</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A34,"000"),"")</f>
+        <f t="shared" ref="G34:G65" si="1">CONCATENATE("C4Model",TEXT(A34,"000"),"")</f>
         <v>C4Model062</v>
       </c>
       <c r="H34" s="6">
@@ -2967,7 +3001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>63</v>
       </c>
@@ -2987,7 +3021,7 @@
         <v>52</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A35,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model063</v>
       </c>
       <c r="H35" s="6">
@@ -2997,7 +3031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>64</v>
       </c>
@@ -3017,7 +3051,7 @@
         <v>52</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A36,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model064</v>
       </c>
       <c r="H36" s="6">
@@ -3027,7 +3061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>65</v>
       </c>
@@ -3047,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A37,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model065</v>
       </c>
       <c r="H37" s="6">
@@ -3057,7 +3091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>66</v>
       </c>
@@ -3077,7 +3111,7 @@
         <v>58</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A38,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model066</v>
       </c>
       <c r="H38" s="6">
@@ -3087,7 +3121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>67</v>
       </c>
@@ -3107,7 +3141,7 @@
         <v>58</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A39,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model067</v>
       </c>
       <c r="H39" s="6">
@@ -3117,7 +3151,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>68</v>
       </c>
@@ -3137,7 +3171,7 @@
         <v>58</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A40,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model068</v>
       </c>
       <c r="H40" s="6">
@@ -3147,7 +3181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>69</v>
       </c>
@@ -3167,7 +3201,7 @@
         <v>58</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A41,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model069</v>
       </c>
       <c r="H41" s="6">
@@ -3177,7 +3211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>70</v>
       </c>
@@ -3197,7 +3231,7 @@
         <v>64</v>
       </c>
       <c r="G42" s="3" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A42,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model070</v>
       </c>
       <c r="H42" s="7">
@@ -3207,7 +3241,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>71</v>
       </c>
@@ -3227,7 +3261,7 @@
         <v>64</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A43,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model071</v>
       </c>
       <c r="H43" s="6">
@@ -3237,7 +3271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>72</v>
       </c>
@@ -3257,7 +3291,7 @@
         <v>64</v>
       </c>
       <c r="G44" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A44,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model072</v>
       </c>
       <c r="H44" s="6">
@@ -3267,7 +3301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>73</v>
       </c>
@@ -3287,7 +3321,7 @@
         <v>64</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A45,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model073</v>
       </c>
       <c r="H45" s="6">
@@ -3297,7 +3331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>74</v>
       </c>
@@ -3317,7 +3351,7 @@
         <v>70</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A46,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model074</v>
       </c>
       <c r="H46" s="6">
@@ -3327,7 +3361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>75</v>
       </c>
@@ -3347,7 +3381,7 @@
         <v>70</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A47,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model075</v>
       </c>
       <c r="H47" s="6">
@@ -3357,7 +3391,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>76</v>
       </c>
@@ -3377,7 +3411,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A48,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model076</v>
       </c>
       <c r="H48" s="6">
@@ -3387,7 +3421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>77</v>
       </c>
@@ -3407,7 +3441,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A49,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model077</v>
       </c>
       <c r="H49" s="6">
@@ -3417,7 +3451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>78</v>
       </c>
@@ -3437,7 +3471,7 @@
         <v>76</v>
       </c>
       <c r="G50" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A50,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model078</v>
       </c>
       <c r="H50" s="6">
@@ -3447,7 +3481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>79</v>
       </c>
@@ -3467,7 +3501,7 @@
         <v>76</v>
       </c>
       <c r="G51" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A51,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model079</v>
       </c>
       <c r="H51" s="6">
@@ -3477,7 +3511,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>80</v>
       </c>
@@ -3497,7 +3531,7 @@
         <v>76</v>
       </c>
       <c r="G52" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A52,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model080</v>
       </c>
       <c r="H52" s="6">
@@ -3507,7 +3541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>81</v>
       </c>
@@ -3527,7 +3561,7 @@
         <v>76</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A53,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model081</v>
       </c>
       <c r="H53" s="7">
@@ -3537,7 +3571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>82</v>
       </c>
@@ -3557,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A54,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model082</v>
       </c>
       <c r="H54" s="7">
@@ -3567,7 +3601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>83</v>
       </c>
@@ -3587,7 +3621,7 @@
         <v>82</v>
       </c>
       <c r="G55" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A55,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model083</v>
       </c>
       <c r="H55" s="6">
@@ -3597,7 +3631,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>84</v>
       </c>
@@ -3617,7 +3651,7 @@
         <v>82</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A56,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model084</v>
       </c>
       <c r="H56" s="6">
@@ -3627,7 +3661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>85</v>
       </c>
@@ -3647,7 +3681,7 @@
         <v>82</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A57,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model085</v>
       </c>
       <c r="H57" s="6">
@@ -3657,7 +3691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>86</v>
       </c>
@@ -3677,7 +3711,7 @@
         <v>88</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A58,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model086</v>
       </c>
       <c r="H58" s="6">
@@ -3687,7 +3721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>87</v>
       </c>
@@ -3707,7 +3741,7 @@
         <v>88</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A59,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model087</v>
       </c>
       <c r="H59" s="6">
@@ -3717,7 +3751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>88</v>
       </c>
@@ -3737,7 +3771,7 @@
         <v>88</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A60,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model088</v>
       </c>
       <c r="H60" s="6">
@@ -3747,7 +3781,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>89</v>
       </c>
@@ -3767,7 +3801,7 @@
         <v>88</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A61,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model089</v>
       </c>
       <c r="H61" s="6">
@@ -3777,7 +3811,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>90</v>
       </c>
@@ -3797,7 +3831,7 @@
         <v>94</v>
       </c>
       <c r="G62" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A62,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model090</v>
       </c>
       <c r="H62" s="6">
@@ -3807,7 +3841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>91</v>
       </c>
@@ -3827,7 +3861,7 @@
         <v>94</v>
       </c>
       <c r="G63" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A63,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model091</v>
       </c>
       <c r="H63" s="6">
@@ -3837,7 +3871,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>92</v>
       </c>
@@ -3857,7 +3891,7 @@
         <v>94</v>
       </c>
       <c r="G64" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A64,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model092</v>
       </c>
       <c r="H64" s="6">
@@ -3867,7 +3901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>93</v>
       </c>
@@ -3887,7 +3921,7 @@
         <v>94</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A65,"000"),"")</f>
+        <f t="shared" si="1"/>
         <v>C4Model093</v>
       </c>
       <c r="H65" s="6">
@@ -3897,7 +3931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>94</v>
       </c>
@@ -3917,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A66,"000"),"")</f>
+        <f t="shared" ref="G66:G73" si="2">CONCATENATE("C4Model",TEXT(A66,"000"),"")</f>
         <v>C4Model094</v>
       </c>
       <c r="H66" s="6">
@@ -3927,7 +3961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>95</v>
       </c>
@@ -3947,7 +3981,7 @@
         <v>100</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A67,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model095</v>
       </c>
       <c r="H67" s="6">
@@ -3957,7 +3991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>96</v>
       </c>
@@ -3977,7 +4011,7 @@
         <v>100</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A68,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model096</v>
       </c>
       <c r="H68" s="6">
@@ -3987,7 +4021,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>97</v>
       </c>
@@ -4007,7 +4041,7 @@
         <v>100</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A69,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model097</v>
       </c>
       <c r="H69" s="6">
@@ -4017,7 +4051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>98</v>
       </c>
@@ -4037,7 +4071,7 @@
         <v>106</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A70,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model098</v>
       </c>
       <c r="H70" s="6">
@@ -4047,7 +4081,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>99</v>
       </c>
@@ -4067,7 +4101,7 @@
         <v>106</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A71,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model099</v>
       </c>
       <c r="H71" s="6">
@@ -4077,7 +4111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>100</v>
       </c>
@@ -4097,7 +4131,7 @@
         <v>106</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A72,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model100</v>
       </c>
       <c r="H72" s="6">
@@ -4107,7 +4141,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>101</v>
       </c>
@@ -4127,7 +4161,7 @@
         <v>106</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>CONCATENATE("C4Model",TEXT(A73,"000"),"")</f>
+        <f t="shared" si="2"/>
         <v>C4Model101</v>
       </c>
       <c r="H73" s="6">
@@ -4144,22 +4178,4416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K1" t="s">
+        <v>535</v>
+      </c>
+      <c r="L1" t="s">
+        <v>534</v>
+      </c>
+      <c r="M1" t="s">
+        <v>533</v>
+      </c>
+      <c r="N1" t="s">
+        <v>532</v>
+      </c>
+      <c r="O1" t="s">
+        <v>531</v>
+      </c>
+      <c r="P1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>529</v>
+      </c>
+      <c r="R1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G65" si="0">CONCATENATE("C4Model",TEXT(A2,"000"),"")</f>
+        <v>C4Model030</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0.95393314546875363</v>
+      </c>
+      <c r="K2">
+        <v>0.94931811969663071</v>
+      </c>
+      <c r="L2">
+        <v>0.95188383429517276</v>
+      </c>
+      <c r="M2">
+        <v>0.94943411445543413</v>
+      </c>
+      <c r="N2">
+        <v>0.94716404684918576</v>
+      </c>
+      <c r="O2">
+        <v>0.94910108380378344</v>
+      </c>
+      <c r="P2">
+        <v>0.94830887934322738</v>
+      </c>
+      <c r="Q2">
+        <v>0.94674731992994432</v>
+      </c>
+      <c r="R2">
+        <v>0.94572714435853167</v>
+      </c>
+      <c r="S2">
+        <v>0.94466339945456745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model031</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0.95202454929926617</v>
+      </c>
+      <c r="K3">
+        <v>0.95146628832896596</v>
+      </c>
+      <c r="L3">
+        <v>0.94935889059843637</v>
+      </c>
+      <c r="M3">
+        <v>0.94775057978272192</v>
+      </c>
+      <c r="N3">
+        <v>0.94512798093616279</v>
+      </c>
+      <c r="O3">
+        <v>0.94556655131457579</v>
+      </c>
+      <c r="P3">
+        <v>0.94678632048159284</v>
+      </c>
+      <c r="Q3">
+        <v>0.94556377305114869</v>
+      </c>
+      <c r="R3">
+        <v>0.94484310533912885</v>
+      </c>
+      <c r="S3">
+        <v>0.94309804370115879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model032</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>0.95445753747120976</v>
+      </c>
+      <c r="K4">
+        <v>0.95039895425360033</v>
+      </c>
+      <c r="L4">
+        <v>0.94861697096416864</v>
+      </c>
+      <c r="M4">
+        <v>0.94829018291840173</v>
+      </c>
+      <c r="N4">
+        <v>0.94679778107441159</v>
+      </c>
+      <c r="O4">
+        <v>0.94647605609538332</v>
+      </c>
+      <c r="P4">
+        <v>0.94576508487971422</v>
+      </c>
+      <c r="Q4">
+        <v>0.9437113702492731</v>
+      </c>
+      <c r="R4">
+        <v>0.94284851708571094</v>
+      </c>
+      <c r="S4">
+        <v>0.94157084150168713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model033</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>0.95246218250053793</v>
+      </c>
+      <c r="K5">
+        <v>0.9477666054987568</v>
+      </c>
+      <c r="L5">
+        <v>0.94794401467364264</v>
+      </c>
+      <c r="M5">
+        <v>0.94798067838417843</v>
+      </c>
+      <c r="N5">
+        <v>0.94615297694466294</v>
+      </c>
+      <c r="O5">
+        <v>0.94493948750042667</v>
+      </c>
+      <c r="P5">
+        <v>0.94481691206164142</v>
+      </c>
+      <c r="Q5">
+        <v>0.94447563710254057</v>
+      </c>
+      <c r="R5">
+        <v>0.94268575932097043</v>
+      </c>
+      <c r="S5">
+        <v>0.94085554577849928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model034</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0.9502991960722077</v>
+      </c>
+      <c r="K6">
+        <v>0.94449960547725043</v>
+      </c>
+      <c r="L6">
+        <v>0.94713930974169402</v>
+      </c>
+      <c r="M6">
+        <v>0.94557840604689969</v>
+      </c>
+      <c r="N6">
+        <v>0.94285713597773335</v>
+      </c>
+      <c r="O6">
+        <v>0.94211217223727373</v>
+      </c>
+      <c r="P6">
+        <v>0.94103282582658609</v>
+      </c>
+      <c r="Q6">
+        <v>0.93983518015345957</v>
+      </c>
+      <c r="R6">
+        <v>0.94176810813237977</v>
+      </c>
+      <c r="S6">
+        <v>0.94174852944514609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model035</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>0.94747702952368984</v>
+      </c>
+      <c r="K7">
+        <v>0.94742090022750636</v>
+      </c>
+      <c r="L7">
+        <v>0.94495617649141084</v>
+      </c>
+      <c r="M7">
+        <v>0.94254877149083027</v>
+      </c>
+      <c r="N7">
+        <v>0.94138072602844636</v>
+      </c>
+      <c r="O7">
+        <v>0.94419755542335682</v>
+      </c>
+      <c r="P7">
+        <v>0.94319819442487263</v>
+      </c>
+      <c r="Q7">
+        <v>0.94447021230414696</v>
+      </c>
+      <c r="R7">
+        <v>0.94122688744093719</v>
+      </c>
+      <c r="S7">
+        <v>0.94101527740991187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model036</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>0.94903318040699725</v>
+      </c>
+      <c r="K8">
+        <v>0.94403080957714358</v>
+      </c>
+      <c r="L8">
+        <v>0.94260057060401647</v>
+      </c>
+      <c r="M8">
+        <v>0.94322486063913791</v>
+      </c>
+      <c r="N8">
+        <v>0.9427546742151296</v>
+      </c>
+      <c r="O8">
+        <v>0.9411086741041006</v>
+      </c>
+      <c r="P8">
+        <v>0.93895865189985062</v>
+      </c>
+      <c r="Q8">
+        <v>0.94011044385789577</v>
+      </c>
+      <c r="R8">
+        <v>0.93968114899198951</v>
+      </c>
+      <c r="S8">
+        <v>0.9391804322421532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model037</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0.94660439861448697</v>
+      </c>
+      <c r="K9">
+        <v>0.94223985129047161</v>
+      </c>
+      <c r="L9">
+        <v>0.94399360789656639</v>
+      </c>
+      <c r="M9">
+        <v>0.94297191080123766</v>
+      </c>
+      <c r="N9">
+        <v>0.94032076385079322</v>
+      </c>
+      <c r="O9">
+        <v>0.94060100952767134</v>
+      </c>
+      <c r="P9">
+        <v>0.93940505207989211</v>
+      </c>
+      <c r="Q9">
+        <v>0.93912361424506952</v>
+      </c>
+      <c r="R9">
+        <v>0.93715763680477138</v>
+      </c>
+      <c r="S9">
+        <v>0.93529161650480608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model038</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0.95218807563254948</v>
+      </c>
+      <c r="K10">
+        <v>0.94597272328748327</v>
+      </c>
+      <c r="L10">
+        <v>0.94775528676187959</v>
+      </c>
+      <c r="M10">
+        <v>0.9445875451628396</v>
+      </c>
+      <c r="N10">
+        <v>0.94233713818572751</v>
+      </c>
+      <c r="O10">
+        <v>0.94300996166336426</v>
+      </c>
+      <c r="P10">
+        <v>0.94098724183827587</v>
+      </c>
+      <c r="Q10">
+        <v>0.93981237806553342</v>
+      </c>
+      <c r="R10">
+        <v>0.94050984754743139</v>
+      </c>
+      <c r="S10">
+        <v>0.9408141274115901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model039</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>0.94681458611662372</v>
+      </c>
+      <c r="K11">
+        <v>0.94542106056614317</v>
+      </c>
+      <c r="L11">
+        <v>0.94297281240545872</v>
+      </c>
+      <c r="M11">
+        <v>0.94068484728849866</v>
+      </c>
+      <c r="N11">
+        <v>0.93965889721934892</v>
+      </c>
+      <c r="O11">
+        <v>0.94083287218045009</v>
+      </c>
+      <c r="P11">
+        <v>0.93986181475654118</v>
+      </c>
+      <c r="Q11">
+        <v>0.94116137008654244</v>
+      </c>
+      <c r="R11">
+        <v>0.93783830418016889</v>
+      </c>
+      <c r="S11">
+        <v>0.93675585946641748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model040</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>0.94970556151106711</v>
+      </c>
+      <c r="K12">
+        <v>0.94294678362775353</v>
+      </c>
+      <c r="L12">
+        <v>0.94219373365585202</v>
+      </c>
+      <c r="M12">
+        <v>0.94153634747695036</v>
+      </c>
+      <c r="N12">
+        <v>0.93999963579444556</v>
+      </c>
+      <c r="O12">
+        <v>0.93716738022578761</v>
+      </c>
+      <c r="P12">
+        <v>0.93641660556968243</v>
+      </c>
+      <c r="Q12">
+        <v>0.93645430905334381</v>
+      </c>
+      <c r="R12">
+        <v>0.93633064105416641</v>
+      </c>
+      <c r="S12">
+        <v>0.93415364966912617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model041</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.94637069144830499</v>
+      </c>
+      <c r="K13">
+        <v>0.94064676468839947</v>
+      </c>
+      <c r="L13">
+        <v>0.9411029098951742</v>
+      </c>
+      <c r="M13">
+        <v>0.94003099313664729</v>
+      </c>
+      <c r="N13">
+        <v>0.93811668358416356</v>
+      </c>
+      <c r="O13">
+        <v>0.93603390810288833</v>
+      </c>
+      <c r="P13">
+        <v>0.93534646001850008</v>
+      </c>
+      <c r="Q13">
+        <v>0.93505501776932221</v>
+      </c>
+      <c r="R13">
+        <v>0.93390490143536686</v>
+      </c>
+      <c r="S13">
+        <v>0.93220982531851138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model042</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>0.94130161700219728</v>
+      </c>
+      <c r="K14">
+        <v>0.93302384281501405</v>
+      </c>
+      <c r="L14">
+        <v>0.93360449134433765</v>
+      </c>
+      <c r="M14">
+        <v>0.93339477325738818</v>
+      </c>
+      <c r="N14">
+        <v>0.93066500728784107</v>
+      </c>
+      <c r="O14">
+        <v>0.93045079166065581</v>
+      </c>
+      <c r="P14">
+        <v>0.92949917537129689</v>
+      </c>
+      <c r="Q14">
+        <v>0.92915104650910485</v>
+      </c>
+      <c r="R14">
+        <v>0.930521444237419</v>
+      </c>
+      <c r="S14">
+        <v>0.93044486057897535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model043</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <v>0.93423177687030556</v>
+      </c>
+      <c r="K15">
+        <v>0.93148812295264716</v>
+      </c>
+      <c r="L15">
+        <v>0.93022606022131182</v>
+      </c>
+      <c r="M15">
+        <v>0.92869436949609063</v>
+      </c>
+      <c r="N15">
+        <v>0.92888251380950249</v>
+      </c>
+      <c r="O15">
+        <v>0.92908897448204841</v>
+      </c>
+      <c r="P15">
+        <v>0.93003007908106805</v>
+      </c>
+      <c r="Q15">
+        <v>0.92992237407927636</v>
+      </c>
+      <c r="R15">
+        <v>0.92661059994240724</v>
+      </c>
+      <c r="S15">
+        <v>0.92727839998780781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model044</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>0.93670936327950338</v>
+      </c>
+      <c r="K16">
+        <v>0.93174175367228718</v>
+      </c>
+      <c r="L16">
+        <v>0.93155821095525082</v>
+      </c>
+      <c r="M16">
+        <v>0.93120111071172407</v>
+      </c>
+      <c r="N16">
+        <v>0.93007772671969069</v>
+      </c>
+      <c r="O16">
+        <v>0.92805926331966371</v>
+      </c>
+      <c r="P16">
+        <v>0.92742910216635466</v>
+      </c>
+      <c r="Q16">
+        <v>0.92801783406662919</v>
+      </c>
+      <c r="R16">
+        <v>0.92614252503747962</v>
+      </c>
+      <c r="S16">
+        <v>0.92610124363797686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model045</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>0.93387440582055925</v>
+      </c>
+      <c r="K17">
+        <v>0.92951904986533895</v>
+      </c>
+      <c r="L17">
+        <v>0.93166780177820907</v>
+      </c>
+      <c r="M17">
+        <v>0.92957620267466601</v>
+      </c>
+      <c r="N17">
+        <v>0.92763659930443532</v>
+      </c>
+      <c r="O17">
+        <v>0.92690941294371243</v>
+      </c>
+      <c r="P17">
+        <v>0.92647129981028531</v>
+      </c>
+      <c r="Q17">
+        <v>0.92638311416409969</v>
+      </c>
+      <c r="R17">
+        <v>0.92444019059268889</v>
+      </c>
+      <c r="S17">
+        <v>0.92350600201999256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model046</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18">
+        <v>0.94793235728492831</v>
+      </c>
+      <c r="K18">
+        <v>0.93990978076333143</v>
+      </c>
+      <c r="L18">
+        <v>0.93907671318420094</v>
+      </c>
+      <c r="M18">
+        <v>0.9333229337352752</v>
+      </c>
+      <c r="N18">
+        <v>0.93068660418521232</v>
+      </c>
+      <c r="O18">
+        <v>0.92438290518169863</v>
+      </c>
+      <c r="P18">
+        <v>0.92673230816875141</v>
+      </c>
+      <c r="Q18">
+        <v>0.92321533267905054</v>
+      </c>
+      <c r="R18">
+        <v>0.92349837023045855</v>
+      </c>
+      <c r="S18">
+        <v>0.92297753236114843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model047</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>0.94053305546577437</v>
+      </c>
+      <c r="K19">
+        <v>0.93982725511063747</v>
+      </c>
+      <c r="L19">
+        <v>0.93427867801490627</v>
+      </c>
+      <c r="M19">
+        <v>0.93325512181811565</v>
+      </c>
+      <c r="N19">
+        <v>0.93629316865187551</v>
+      </c>
+      <c r="O19">
+        <v>0.93665269323521916</v>
+      </c>
+      <c r="P19">
+        <v>0.9304626961189939</v>
+      </c>
+      <c r="Q19">
+        <v>0.93066574621620957</v>
+      </c>
+      <c r="R19">
+        <v>0.93124558446370376</v>
+      </c>
+      <c r="S19">
+        <v>0.93232379019619327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model048</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20">
+        <v>0.94248435523007346</v>
+      </c>
+      <c r="K20">
+        <v>0.93427450208235452</v>
+      </c>
+      <c r="L20">
+        <v>0.93573974586729458</v>
+      </c>
+      <c r="M20">
+        <v>0.93764051097947432</v>
+      </c>
+      <c r="N20">
+        <v>0.93505688190738379</v>
+      </c>
+      <c r="O20">
+        <v>0.93246932824181894</v>
+      </c>
+      <c r="P20">
+        <v>0.93280124717812141</v>
+      </c>
+      <c r="Q20">
+        <v>0.93306848650027807</v>
+      </c>
+      <c r="R20">
+        <v>0.93132736612262379</v>
+      </c>
+      <c r="S20">
+        <v>0.93077841300860542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model049</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>0.94039245685701911</v>
+      </c>
+      <c r="K21">
+        <v>0.93470952411018893</v>
+      </c>
+      <c r="L21">
+        <v>0.93709764407164464</v>
+      </c>
+      <c r="M21">
+        <v>0.93509047954223767</v>
+      </c>
+      <c r="N21">
+        <v>0.93366836295676503</v>
+      </c>
+      <c r="O21">
+        <v>0.93245908644218745</v>
+      </c>
+      <c r="P21">
+        <v>0.93166548294880869</v>
+      </c>
+      <c r="Q21">
+        <v>0.93197242180487272</v>
+      </c>
+      <c r="R21">
+        <v>0.92923015689017174</v>
+      </c>
+      <c r="S21">
+        <v>0.92788092739404227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model050</v>
+      </c>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>0.94910147634569464</v>
+      </c>
+      <c r="K22">
+        <v>0.9434659034736943</v>
+      </c>
+      <c r="L22">
+        <v>0.94244768296333892</v>
+      </c>
+      <c r="M22">
+        <v>0.94216137537955813</v>
+      </c>
+      <c r="N22">
+        <v>0.93855732307370598</v>
+      </c>
+      <c r="O22">
+        <v>0.93789936448280442</v>
+      </c>
+      <c r="P22">
+        <v>0.93631086097966898</v>
+      </c>
+      <c r="Q22">
+        <v>0.93494657788553848</v>
+      </c>
+      <c r="R22">
+        <v>0.9374714660821909</v>
+      </c>
+      <c r="S22">
+        <v>0.93657250156446481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model051</v>
+      </c>
+      <c r="H23" s="6">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>0.94292568083003037</v>
+      </c>
+      <c r="K23">
+        <v>0.94195776413080234</v>
+      </c>
+      <c r="L23">
+        <v>0.93784463009262942</v>
+      </c>
+      <c r="M23">
+        <v>0.93533034948071292</v>
+      </c>
+      <c r="N23">
+        <v>0.93622628023840415</v>
+      </c>
+      <c r="O23">
+        <v>0.93990840514840135</v>
+      </c>
+      <c r="P23">
+        <v>0.93709352529936019</v>
+      </c>
+      <c r="Q23">
+        <v>0.93976224480002968</v>
+      </c>
+      <c r="R23">
+        <v>0.93605489165158995</v>
+      </c>
+      <c r="S23">
+        <v>0.93639679540907217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model052</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24">
+        <v>0.94354809491980351</v>
+      </c>
+      <c r="K24">
+        <v>0.93613271869376846</v>
+      </c>
+      <c r="L24">
+        <v>0.93565929961257455</v>
+      </c>
+      <c r="M24">
+        <v>0.93947471932477289</v>
+      </c>
+      <c r="N24">
+        <v>0.93848546785610876</v>
+      </c>
+      <c r="O24">
+        <v>0.93472372562111539</v>
+      </c>
+      <c r="P24">
+        <v>0.93309420246655683</v>
+      </c>
+      <c r="Q24">
+        <v>0.93553135049319014</v>
+      </c>
+      <c r="R24">
+        <v>0.935237926206549</v>
+      </c>
+      <c r="S24">
+        <v>0.93494823083197764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model053</v>
+      </c>
+      <c r="H25" s="6">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>0.94287050612792822</v>
+      </c>
+      <c r="K25">
+        <v>0.93467590797381284</v>
+      </c>
+      <c r="L25">
+        <v>0.93983175377480033</v>
+      </c>
+      <c r="M25">
+        <v>0.93879511263952786</v>
+      </c>
+      <c r="N25">
+        <v>0.93550108814063782</v>
+      </c>
+      <c r="O25">
+        <v>0.93554379422334666</v>
+      </c>
+      <c r="P25">
+        <v>0.93501223028458269</v>
+      </c>
+      <c r="Q25">
+        <v>0.93479083398922547</v>
+      </c>
+      <c r="R25">
+        <v>0.93250434251500025</v>
+      </c>
+      <c r="S25">
+        <v>0.93276597504779746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model054</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26">
+        <v>0.95502977751036044</v>
+      </c>
+      <c r="K26">
+        <v>0.94742209125176091</v>
+      </c>
+      <c r="L26">
+        <v>0.95198949993075987</v>
+      </c>
+      <c r="M26">
+        <v>0.94642723338086543</v>
+      </c>
+      <c r="N26">
+        <v>0.94708510539095569</v>
+      </c>
+      <c r="O26">
+        <v>0.9453679941401848</v>
+      </c>
+      <c r="P26">
+        <v>0.9451066384958875</v>
+      </c>
+      <c r="Q26">
+        <v>0.94411775853902569</v>
+      </c>
+      <c r="R26">
+        <v>0.94391951491262382</v>
+      </c>
+      <c r="S26">
+        <v>0.94503587320103699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model055</v>
+      </c>
+      <c r="H27" s="6">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27">
+        <v>0.9527553862298942</v>
+      </c>
+      <c r="K27">
+        <v>0.94943484631127328</v>
+      </c>
+      <c r="L27">
+        <v>0.94663697804763414</v>
+      </c>
+      <c r="M27">
+        <v>0.94575275971801664</v>
+      </c>
+      <c r="N27">
+        <v>0.94733287698907576</v>
+      </c>
+      <c r="O27">
+        <v>0.94906893079541532</v>
+      </c>
+      <c r="P27">
+        <v>0.94722076483645623</v>
+      </c>
+      <c r="Q27">
+        <v>0.94829811906405637</v>
+      </c>
+      <c r="R27">
+        <v>0.94751951043086757</v>
+      </c>
+      <c r="S27">
+        <v>0.94613296129680879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model056</v>
+      </c>
+      <c r="H28" s="6">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28">
+        <v>0.95469282933172517</v>
+      </c>
+      <c r="K28">
+        <v>0.94856070900656853</v>
+      </c>
+      <c r="L28">
+        <v>0.94603132710064375</v>
+      </c>
+      <c r="M28">
+        <v>0.94575137379866347</v>
+      </c>
+      <c r="N28">
+        <v>0.94677709370398777</v>
+      </c>
+      <c r="O28">
+        <v>0.94645764416685374</v>
+      </c>
+      <c r="P28">
+        <v>0.9451172213278326</v>
+      </c>
+      <c r="Q28">
+        <v>0.94497477989746081</v>
+      </c>
+      <c r="R28">
+        <v>0.94358855837670785</v>
+      </c>
+      <c r="S28">
+        <v>0.94442470762594033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>65</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model057</v>
+      </c>
+      <c r="H29" s="6">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29">
+        <v>0.94980750163386873</v>
+      </c>
+      <c r="K29">
+        <v>0.94692404991645351</v>
+      </c>
+      <c r="L29">
+        <v>0.94716026021288635</v>
+      </c>
+      <c r="M29">
+        <v>0.94797664643021617</v>
+      </c>
+      <c r="N29">
+        <v>0.94475656636630967</v>
+      </c>
+      <c r="O29">
+        <v>0.94456746857550189</v>
+      </c>
+      <c r="P29">
+        <v>0.94505822204325374</v>
+      </c>
+      <c r="Q29">
+        <v>0.94418567833248968</v>
+      </c>
+      <c r="R29">
+        <v>0.94221826601821634</v>
+      </c>
+      <c r="S29">
+        <v>0.9406629687398057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>75</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model058</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30">
+        <v>0.9561169889100406</v>
+      </c>
+      <c r="K30">
+        <v>0.95038826198211745</v>
+      </c>
+      <c r="L30">
+        <v>0.95167960881253277</v>
+      </c>
+      <c r="M30">
+        <v>0.95131508100001849</v>
+      </c>
+      <c r="N30">
+        <v>0.9502541554219619</v>
+      </c>
+      <c r="O30">
+        <v>0.94852396175056664</v>
+      </c>
+      <c r="P30">
+        <v>0.94955626300415774</v>
+      </c>
+      <c r="Q30">
+        <v>0.9479887062305401</v>
+      </c>
+      <c r="R30">
+        <v>0.95003842865445998</v>
+      </c>
+      <c r="S30">
+        <v>0.94808202399339681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model059</v>
+      </c>
+      <c r="H31" s="6">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31">
+        <v>0.95187011064895011</v>
+      </c>
+      <c r="K31">
+        <v>0.95179351481652774</v>
+      </c>
+      <c r="L31">
+        <v>0.94897035796185913</v>
+      </c>
+      <c r="M31">
+        <v>0.94895380399934481</v>
+      </c>
+      <c r="N31">
+        <v>0.94824847365064635</v>
+      </c>
+      <c r="O31">
+        <v>0.94896616822639457</v>
+      </c>
+      <c r="P31">
+        <v>0.94865092157965591</v>
+      </c>
+      <c r="Q31">
+        <v>0.94981351244352263</v>
+      </c>
+      <c r="R31">
+        <v>0.94803355792565014</v>
+      </c>
+      <c r="S31">
+        <v>0.94789362599937954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model060</v>
+      </c>
+      <c r="H32" s="6">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32">
+        <v>0.95184077413436696</v>
+      </c>
+      <c r="K32">
+        <v>0.94911933282460348</v>
+      </c>
+      <c r="L32">
+        <v>0.94919924365907427</v>
+      </c>
+      <c r="M32">
+        <v>0.95005005164356571</v>
+      </c>
+      <c r="N32">
+        <v>0.94883335634863208</v>
+      </c>
+      <c r="O32">
+        <v>0.94806609347121462</v>
+      </c>
+      <c r="P32">
+        <v>0.94588444370320701</v>
+      </c>
+      <c r="Q32">
+        <v>0.94712748898696564</v>
+      </c>
+      <c r="R32">
+        <v>0.94626855671005261</v>
+      </c>
+      <c r="S32">
+        <v>0.94631839385869254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model061</v>
+      </c>
+      <c r="H33" s="6">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>0.95314519212295523</v>
+      </c>
+      <c r="K33">
+        <v>0.94793158828504598</v>
+      </c>
+      <c r="L33">
+        <v>0.95049967763554777</v>
+      </c>
+      <c r="M33">
+        <v>0.94863185555796592</v>
+      </c>
+      <c r="N33">
+        <v>0.9466833842486283</v>
+      </c>
+      <c r="O33">
+        <v>0.9461904565779381</v>
+      </c>
+      <c r="P33">
+        <v>0.94582886210874695</v>
+      </c>
+      <c r="Q33">
+        <v>0.94536718798032648</v>
+      </c>
+      <c r="R33">
+        <v>0.94427662036264803</v>
+      </c>
+      <c r="S33">
+        <v>0.94362449309434804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model062</v>
+      </c>
+      <c r="H34" s="6">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34">
+        <v>0.95133132170542456</v>
+      </c>
+      <c r="K34">
+        <v>0.94457046380725396</v>
+      </c>
+      <c r="L34">
+        <v>0.94670242887588685</v>
+      </c>
+      <c r="M34">
+        <v>0.94579312731022369</v>
+      </c>
+      <c r="N34">
+        <v>0.94415097797107483</v>
+      </c>
+      <c r="O34">
+        <v>0.94284756040605788</v>
+      </c>
+      <c r="P34">
+        <v>0.94146849767429142</v>
+      </c>
+      <c r="Q34">
+        <v>0.94216713714810008</v>
+      </c>
+      <c r="R34">
+        <v>0.94169310598586264</v>
+      </c>
+      <c r="S34">
+        <v>0.94164713436837977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>85</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model063</v>
+      </c>
+      <c r="H35" s="6">
+        <v>9</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35">
+        <v>0.94623348229820581</v>
+      </c>
+      <c r="K35">
+        <v>0.94624861954136386</v>
+      </c>
+      <c r="L35">
+        <v>0.94247072546096788</v>
+      </c>
+      <c r="M35">
+        <v>0.94117226284464117</v>
+      </c>
+      <c r="N35">
+        <v>0.94178941890080681</v>
+      </c>
+      <c r="O35">
+        <v>0.94080243309333889</v>
+      </c>
+      <c r="P35">
+        <v>0.94255138966703955</v>
+      </c>
+      <c r="Q35">
+        <v>0.94199272269520606</v>
+      </c>
+      <c r="R35">
+        <v>0.94049313778027643</v>
+      </c>
+      <c r="S35">
+        <v>0.93998586444761711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model064</v>
+      </c>
+      <c r="H36" s="6">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36">
+        <v>0.9480373983076319</v>
+      </c>
+      <c r="K36">
+        <v>0.94023840678270043</v>
+      </c>
+      <c r="L36">
+        <v>0.9411932803250902</v>
+      </c>
+      <c r="M36">
+        <v>0.94192101549797613</v>
+      </c>
+      <c r="N36">
+        <v>0.94191221034371619</v>
+      </c>
+      <c r="O36">
+        <v>0.94022549325525528</v>
+      </c>
+      <c r="P36">
+        <v>0.93972258424560007</v>
+      </c>
+      <c r="Q36">
+        <v>0.93924359563598969</v>
+      </c>
+      <c r="R36">
+        <v>0.93863312665777376</v>
+      </c>
+      <c r="S36">
+        <v>0.93881237905800319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>85</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model065</v>
+      </c>
+      <c r="H37" s="6">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37">
+        <v>0.94639720316252873</v>
+      </c>
+      <c r="K37">
+        <v>0.94193252449654596</v>
+      </c>
+      <c r="L37">
+        <v>0.94320699143173681</v>
+      </c>
+      <c r="M37">
+        <v>0.9428824508531809</v>
+      </c>
+      <c r="N37">
+        <v>0.93952637474005929</v>
+      </c>
+      <c r="O37">
+        <v>0.93953292625411111</v>
+      </c>
+      <c r="P37">
+        <v>0.93856410497591281</v>
+      </c>
+      <c r="Q37">
+        <v>0.93795108846423536</v>
+      </c>
+      <c r="R37">
+        <v>0.93677110852060519</v>
+      </c>
+      <c r="S37">
+        <v>0.9355370590506108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>95</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model066</v>
+      </c>
+      <c r="H38" s="6">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38">
+        <v>0.94351227087395972</v>
+      </c>
+      <c r="K38">
+        <v>0.93490025544861077</v>
+      </c>
+      <c r="L38">
+        <v>0.93840426749848016</v>
+      </c>
+      <c r="M38">
+        <v>0.93585611005700853</v>
+      </c>
+      <c r="N38">
+        <v>0.93100341871424996</v>
+      </c>
+      <c r="O38">
+        <v>0.92894748464757604</v>
+      </c>
+      <c r="P38">
+        <v>0.93011339624768241</v>
+      </c>
+      <c r="Q38">
+        <v>0.92929303675078789</v>
+      </c>
+      <c r="R38">
+        <v>0.93170183944352858</v>
+      </c>
+      <c r="S38">
+        <v>0.93125076749589319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>95</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model067</v>
+      </c>
+      <c r="H39" s="6">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>0.93574485722649547</v>
+      </c>
+      <c r="K39">
+        <v>0.93470831892609463</v>
+      </c>
+      <c r="L39">
+        <v>0.9309815422367872</v>
+      </c>
+      <c r="M39">
+        <v>0.92962719380462222</v>
+      </c>
+      <c r="N39">
+        <v>0.92933362828946142</v>
+      </c>
+      <c r="O39">
+        <v>0.93021273496597556</v>
+      </c>
+      <c r="P39">
+        <v>0.9302711838402753</v>
+      </c>
+      <c r="Q39">
+        <v>0.9310589711271694</v>
+      </c>
+      <c r="R39">
+        <v>0.92930789110837164</v>
+      </c>
+      <c r="S39">
+        <v>0.92963155622485127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>95</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model068</v>
+      </c>
+      <c r="H40" s="6">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40">
+        <v>0.93737877838945471</v>
+      </c>
+      <c r="K40">
+        <v>0.93064128479197694</v>
+      </c>
+      <c r="L40">
+        <v>0.93089342097014205</v>
+      </c>
+      <c r="M40">
+        <v>0.93193491055384381</v>
+      </c>
+      <c r="N40">
+        <v>0.93262933668198478</v>
+      </c>
+      <c r="O40">
+        <v>0.9299051043465959</v>
+      </c>
+      <c r="P40">
+        <v>0.92835783632288604</v>
+      </c>
+      <c r="Q40">
+        <v>0.92854102596441535</v>
+      </c>
+      <c r="R40">
+        <v>0.92609202030221138</v>
+      </c>
+      <c r="S40">
+        <v>0.92728886808490096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>95</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model069</v>
+      </c>
+      <c r="H41" s="6">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41">
+        <v>0.93516847817260873</v>
+      </c>
+      <c r="K41">
+        <v>0.93005003129254094</v>
+      </c>
+      <c r="L41">
+        <v>0.93215182765187998</v>
+      </c>
+      <c r="M41">
+        <v>0.93235630470584241</v>
+      </c>
+      <c r="N41">
+        <v>0.92962276611837458</v>
+      </c>
+      <c r="O41">
+        <v>0.92829796958660182</v>
+      </c>
+      <c r="P41">
+        <v>0.92820690230738112</v>
+      </c>
+      <c r="Q41">
+        <v>0.92819026959986739</v>
+      </c>
+      <c r="R41">
+        <v>0.92633652666488764</v>
+      </c>
+      <c r="S41">
+        <v>0.9242409245650004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>105</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model070</v>
+      </c>
+      <c r="H42" s="7">
+        <v>11</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42">
+        <v>0.96271967287240345</v>
+      </c>
+      <c r="K42">
+        <v>0.95610305188591171</v>
+      </c>
+      <c r="L42">
+        <v>0.95654590344683277</v>
+      </c>
+      <c r="M42">
+        <v>0.95421969315943833</v>
+      </c>
+      <c r="N42">
+        <v>0.95102241489209227</v>
+      </c>
+      <c r="O42">
+        <v>0.94992090841451682</v>
+      </c>
+      <c r="P42">
+        <v>0.94851076083031394</v>
+      </c>
+      <c r="Q42">
+        <v>0.94844580121442668</v>
+      </c>
+      <c r="R42">
+        <v>0.94923733482420658</v>
+      </c>
+      <c r="S42">
+        <v>0.94929684932184899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>105</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model071</v>
+      </c>
+      <c r="H43" s="6">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43">
+        <v>0.95663455895223659</v>
+      </c>
+      <c r="K43">
+        <v>0.95374610774832747</v>
+      </c>
+      <c r="L43">
+        <v>0.94999515000175694</v>
+      </c>
+      <c r="M43">
+        <v>0.9477410524160963</v>
+      </c>
+      <c r="N43">
+        <v>0.94953012429422301</v>
+      </c>
+      <c r="O43">
+        <v>0.95031901079112491</v>
+      </c>
+      <c r="P43">
+        <v>0.94904947050748167</v>
+      </c>
+      <c r="Q43">
+        <v>0.95026260171005661</v>
+      </c>
+      <c r="R43">
+        <v>0.94764581921474356</v>
+      </c>
+      <c r="S43">
+        <v>0.94669886843705686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model072</v>
+      </c>
+      <c r="H44" s="6">
+        <v>11</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44">
+        <v>0.95680052586668085</v>
+      </c>
+      <c r="K44">
+        <v>0.95008850576076687</v>
+      </c>
+      <c r="L44">
+        <v>0.94908779241791175</v>
+      </c>
+      <c r="M44">
+        <v>0.95008693644482878</v>
+      </c>
+      <c r="N44">
+        <v>0.94965109065092146</v>
+      </c>
+      <c r="O44">
+        <v>0.94796003551767438</v>
+      </c>
+      <c r="P44">
+        <v>0.94617861985062313</v>
+      </c>
+      <c r="Q44">
+        <v>0.9463556044570276</v>
+      </c>
+      <c r="R44">
+        <v>0.94568186697055734</v>
+      </c>
+      <c r="S44">
+        <v>0.94503763226954562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>105</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model073</v>
+      </c>
+      <c r="H45" s="6">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45">
+        <v>0.9547334861812099</v>
+      </c>
+      <c r="K45">
+        <v>0.95029552171714715</v>
+      </c>
+      <c r="L45">
+        <v>0.95208091374686021</v>
+      </c>
+      <c r="M45">
+        <v>0.94977172291703194</v>
+      </c>
+      <c r="N45">
+        <v>0.9475914567929451</v>
+      </c>
+      <c r="O45">
+        <v>0.94594776667332525</v>
+      </c>
+      <c r="P45">
+        <v>0.94590777330380948</v>
+      </c>
+      <c r="Q45">
+        <v>0.94558937277617727</v>
+      </c>
+      <c r="R45">
+        <v>0.94473260834235229</v>
+      </c>
+      <c r="S45">
+        <v>0.94299057992672941</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>115</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model074</v>
+      </c>
+      <c r="H46" s="6">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46">
+        <v>0.95911468847332859</v>
+      </c>
+      <c r="K46">
+        <v>0.95208269115621347</v>
+      </c>
+      <c r="L46">
+        <v>0.95192018125466904</v>
+      </c>
+      <c r="M46">
+        <v>0.95063372024877923</v>
+      </c>
+      <c r="N46">
+        <v>0.94759505094561747</v>
+      </c>
+      <c r="O46">
+        <v>0.94601127406975716</v>
+      </c>
+      <c r="P46">
+        <v>0.94526879511107553</v>
+      </c>
+      <c r="Q46">
+        <v>0.94593123760551512</v>
+      </c>
+      <c r="R46">
+        <v>0.94373402797006001</v>
+      </c>
+      <c r="S46">
+        <v>0.94249808189548379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>115</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model075</v>
+      </c>
+      <c r="H47" s="6">
+        <v>12</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47">
+        <v>0.95362653242047202</v>
+      </c>
+      <c r="K47">
+        <v>0.95014501402628082</v>
+      </c>
+      <c r="L47">
+        <v>0.94683101786765633</v>
+      </c>
+      <c r="M47">
+        <v>0.94544452872411799</v>
+      </c>
+      <c r="N47">
+        <v>0.94649608737232871</v>
+      </c>
+      <c r="O47">
+        <v>0.94748816055928464</v>
+      </c>
+      <c r="P47">
+        <v>0.948055006457454</v>
+      </c>
+      <c r="Q47">
+        <v>0.94755814684213535</v>
+      </c>
+      <c r="R47">
+        <v>0.94586906669064741</v>
+      </c>
+      <c r="S47">
+        <v>0.94413955366354863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>115</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model076</v>
+      </c>
+      <c r="H48" s="6">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48">
+        <v>0.9548120935997767</v>
+      </c>
+      <c r="K48">
+        <v>0.94645140647952875</v>
+      </c>
+      <c r="L48">
+        <v>0.94752475173345241</v>
+      </c>
+      <c r="M48">
+        <v>0.94822504218950354</v>
+      </c>
+      <c r="N48">
+        <v>0.94823537309430983</v>
+      </c>
+      <c r="O48">
+        <v>0.94535835319678385</v>
+      </c>
+      <c r="P48">
+        <v>0.94356038147795818</v>
+      </c>
+      <c r="Q48">
+        <v>0.94552182648483829</v>
+      </c>
+      <c r="R48">
+        <v>0.94386981516509993</v>
+      </c>
+      <c r="S48">
+        <v>0.94457624582686273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>115</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model077</v>
+      </c>
+      <c r="H49" s="6">
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49">
+        <v>0.95221936259711581</v>
+      </c>
+      <c r="K49">
+        <v>0.94678017150632099</v>
+      </c>
+      <c r="L49">
+        <v>0.94826409839500003</v>
+      </c>
+      <c r="M49">
+        <v>0.94785863874564036</v>
+      </c>
+      <c r="N49">
+        <v>0.94535931969102593</v>
+      </c>
+      <c r="O49">
+        <v>0.94486582506335093</v>
+      </c>
+      <c r="P49">
+        <v>0.94538874317094879</v>
+      </c>
+      <c r="Q49">
+        <v>0.94375564038594195</v>
+      </c>
+      <c r="R49">
+        <v>0.94228088780734143</v>
+      </c>
+      <c r="S49">
+        <v>0.94138031554853618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model078</v>
+      </c>
+      <c r="H50" s="6">
+        <v>13</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50">
+        <v>0.95080963524395701</v>
+      </c>
+      <c r="K50">
+        <v>0.94363057755455448</v>
+      </c>
+      <c r="L50">
+        <v>0.94511290585308294</v>
+      </c>
+      <c r="M50">
+        <v>0.93905061799537159</v>
+      </c>
+      <c r="N50">
+        <v>0.93971771318909914</v>
+      </c>
+      <c r="O50">
+        <v>0.93804578166400443</v>
+      </c>
+      <c r="P50">
+        <v>0.9382914133914797</v>
+      </c>
+      <c r="Q50">
+        <v>0.93805763627145067</v>
+      </c>
+      <c r="R50">
+        <v>0.93706266143245798</v>
+      </c>
+      <c r="S50">
+        <v>0.93725152173111781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>125</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model079</v>
+      </c>
+      <c r="H51" s="6">
+        <v>13</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J51">
+        <v>0.94752432773239825</v>
+      </c>
+      <c r="K51">
+        <v>0.9430476880973826</v>
+      </c>
+      <c r="L51">
+        <v>0.94141206301258107</v>
+      </c>
+      <c r="M51">
+        <v>0.93934476096398312</v>
+      </c>
+      <c r="N51">
+        <v>0.94090216786184533</v>
+      </c>
+      <c r="O51">
+        <v>0.94227250962052944</v>
+      </c>
+      <c r="P51">
+        <v>0.94010736542333551</v>
+      </c>
+      <c r="Q51">
+        <v>0.9396567218160895</v>
+      </c>
+      <c r="R51">
+        <v>0.93856383683836853</v>
+      </c>
+      <c r="S51">
+        <v>0.9363012987406667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>125</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model080</v>
+      </c>
+      <c r="H52" s="6">
+        <v>13</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J52">
+        <v>0.94831814753630239</v>
+      </c>
+      <c r="K52">
+        <v>0.94191968276289173</v>
+      </c>
+      <c r="L52">
+        <v>0.94039754850032575</v>
+      </c>
+      <c r="M52">
+        <v>0.94210881805485114</v>
+      </c>
+      <c r="N52">
+        <v>0.94221504369233011</v>
+      </c>
+      <c r="O52">
+        <v>0.93995592925173121</v>
+      </c>
+      <c r="P52">
+        <v>0.93868897510327531</v>
+      </c>
+      <c r="Q52">
+        <v>0.93879961558325054</v>
+      </c>
+      <c r="R52">
+        <v>0.93744267065134501</v>
+      </c>
+      <c r="S52">
+        <v>0.93790309199912913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>125</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model081</v>
+      </c>
+      <c r="H53" s="7">
+        <v>13</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53">
+        <v>0.94467348139195761</v>
+      </c>
+      <c r="K53">
+        <v>0.93802143014555672</v>
+      </c>
+      <c r="L53">
+        <v>0.94172253269396966</v>
+      </c>
+      <c r="M53">
+        <v>0.94074335941178222</v>
+      </c>
+      <c r="N53">
+        <v>0.93861068386908553</v>
+      </c>
+      <c r="O53">
+        <v>0.93817794775564911</v>
+      </c>
+      <c r="P53">
+        <v>0.93779886238006704</v>
+      </c>
+      <c r="Q53">
+        <v>0.9365355049429076</v>
+      </c>
+      <c r="R53">
+        <v>0.93451493532912766</v>
+      </c>
+      <c r="S53">
+        <v>0.93349923381866751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>82</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>135</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model082</v>
+      </c>
+      <c r="H54" s="7">
+        <v>14</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54">
+        <v>0.93379774426573348</v>
+      </c>
+      <c r="K54">
+        <v>0.92591403311748688</v>
+      </c>
+      <c r="L54">
+        <v>0.92722348239582741</v>
+      </c>
+      <c r="M54">
+        <v>0.92283858605689617</v>
+      </c>
+      <c r="N54">
+        <v>0.92389022022005152</v>
+      </c>
+      <c r="O54">
+        <v>0.92266877226898769</v>
+      </c>
+      <c r="P54">
+        <v>0.92234157622610713</v>
+      </c>
+      <c r="Q54">
+        <v>0.92168141880992605</v>
+      </c>
+      <c r="R54">
+        <v>0.92290779842119219</v>
+      </c>
+      <c r="S54">
+        <v>0.9230136912854876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>135</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model083</v>
+      </c>
+      <c r="H55" s="6">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55">
+        <v>0.93027918560003686</v>
+      </c>
+      <c r="K55">
+        <v>0.92554901340579465</v>
+      </c>
+      <c r="L55">
+        <v>0.92715613630462401</v>
+      </c>
+      <c r="M55">
+        <v>0.92440821709388987</v>
+      </c>
+      <c r="N55">
+        <v>0.92508381477338042</v>
+      </c>
+      <c r="O55">
+        <v>0.92655569722411724</v>
+      </c>
+      <c r="P55">
+        <v>0.92500994374893064</v>
+      </c>
+      <c r="Q55">
+        <v>0.92451520293529532</v>
+      </c>
+      <c r="R55">
+        <v>0.92310100991952293</v>
+      </c>
+      <c r="S55">
+        <v>0.92140549415189699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" s="3">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model084</v>
+      </c>
+      <c r="H56" s="6">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56">
+        <v>0.92939468615896725</v>
+      </c>
+      <c r="K56">
+        <v>0.92321824818939835</v>
+      </c>
+      <c r="L56">
+        <v>0.9221039571237919</v>
+      </c>
+      <c r="M56">
+        <v>0.92392133649311403</v>
+      </c>
+      <c r="N56">
+        <v>0.92212451533191164</v>
+      </c>
+      <c r="O56">
+        <v>0.92102805574711066</v>
+      </c>
+      <c r="P56">
+        <v>0.92036906960166931</v>
+      </c>
+      <c r="Q56">
+        <v>0.92169387531553137</v>
+      </c>
+      <c r="R56">
+        <v>0.92005170127392222</v>
+      </c>
+      <c r="S56">
+        <v>0.91982014334366236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>135</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model085</v>
+      </c>
+      <c r="H57" s="6">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57">
+        <v>0.92815277150704856</v>
+      </c>
+      <c r="K57">
+        <v>0.92383872737933748</v>
+      </c>
+      <c r="L57">
+        <v>0.92505186472561796</v>
+      </c>
+      <c r="M57">
+        <v>0.92159762204242268</v>
+      </c>
+      <c r="N57">
+        <v>0.92005876178070489</v>
+      </c>
+      <c r="O57">
+        <v>0.91974262856810074</v>
+      </c>
+      <c r="P57">
+        <v>0.91861061377515218</v>
+      </c>
+      <c r="Q57">
+        <v>0.91809925189126929</v>
+      </c>
+      <c r="R57">
+        <v>0.91835359103297076</v>
+      </c>
+      <c r="S57">
+        <v>0.91589379005088889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>145</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model086</v>
+      </c>
+      <c r="H58" s="6">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58">
+        <v>0.95330374896828562</v>
+      </c>
+      <c r="K58">
+        <v>0.94739678802065086</v>
+      </c>
+      <c r="L58">
+        <v>0.95004674196471905</v>
+      </c>
+      <c r="M58">
+        <v>0.94632925745182739</v>
+      </c>
+      <c r="N58">
+        <v>0.94452462427895612</v>
+      </c>
+      <c r="O58">
+        <v>0.9434822392864991</v>
+      </c>
+      <c r="P58">
+        <v>0.94419719391420476</v>
+      </c>
+      <c r="Q58">
+        <v>0.94246179778197703</v>
+      </c>
+      <c r="R58">
+        <v>0.9438954908589654</v>
+      </c>
+      <c r="S58">
+        <v>0.94328186990760832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>145</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model087</v>
+      </c>
+      <c r="H59" s="6">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59">
+        <v>0.95006919036744042</v>
+      </c>
+      <c r="K59">
+        <v>0.94709656688721511</v>
+      </c>
+      <c r="L59">
+        <v>0.94545829345753907</v>
+      </c>
+      <c r="M59">
+        <v>0.94327439813384006</v>
+      </c>
+      <c r="N59">
+        <v>0.94385013022004682</v>
+      </c>
+      <c r="O59">
+        <v>0.94384570020224301</v>
+      </c>
+      <c r="P59">
+        <v>0.94400842375991678</v>
+      </c>
+      <c r="Q59">
+        <v>0.94444042895651803</v>
+      </c>
+      <c r="R59">
+        <v>0.94298584792238438</v>
+      </c>
+      <c r="S59">
+        <v>0.94307191096608456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>145</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model088</v>
+      </c>
+      <c r="H60" s="6">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60">
+        <v>0.9515276684129208</v>
+      </c>
+      <c r="K60">
+        <v>0.94633072839862686</v>
+      </c>
+      <c r="L60">
+        <v>0.94453033990765467</v>
+      </c>
+      <c r="M60">
+        <v>0.94365342572584354</v>
+      </c>
+      <c r="N60">
+        <v>0.94399326944066009</v>
+      </c>
+      <c r="O60">
+        <v>0.9416398328926503</v>
+      </c>
+      <c r="P60">
+        <v>0.94116154501684279</v>
+      </c>
+      <c r="Q60">
+        <v>0.94032416541682862</v>
+      </c>
+      <c r="R60">
+        <v>0.93939688667095367</v>
+      </c>
+      <c r="S60">
+        <v>0.93814782060805246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model089</v>
+      </c>
+      <c r="H61" s="6">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J61">
+        <v>0.94743067011956528</v>
+      </c>
+      <c r="K61">
+        <v>0.94284969045504963</v>
+      </c>
+      <c r="L61">
+        <v>0.94433469252915903</v>
+      </c>
+      <c r="M61">
+        <v>0.94277018299508797</v>
+      </c>
+      <c r="N61">
+        <v>0.94066439105451138</v>
+      </c>
+      <c r="O61">
+        <v>0.93972768093280334</v>
+      </c>
+      <c r="P61">
+        <v>0.93949061458010108</v>
+      </c>
+      <c r="Q61">
+        <v>0.93824751643281579</v>
+      </c>
+      <c r="R61">
+        <v>0.93686613943984764</v>
+      </c>
+      <c r="S61">
+        <v>0.93449573674070385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>155</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model090</v>
+      </c>
+      <c r="H62" s="6">
+        <v>16</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62">
+        <v>0.95447930321015251</v>
+      </c>
+      <c r="K62">
+        <v>0.94762536235012129</v>
+      </c>
+      <c r="L62">
+        <v>0.95022638496646117</v>
+      </c>
+      <c r="M62">
+        <v>0.94661409418924181</v>
+      </c>
+      <c r="N62">
+        <v>0.94464223787936452</v>
+      </c>
+      <c r="O62">
+        <v>0.94335047329334731</v>
+      </c>
+      <c r="P62">
+        <v>0.94275308051631945</v>
+      </c>
+      <c r="Q62">
+        <v>0.9426529804210062</v>
+      </c>
+      <c r="R62">
+        <v>0.94287646806197989</v>
+      </c>
+      <c r="S62">
+        <v>0.94428934643998341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>91</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>155</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model091</v>
+      </c>
+      <c r="H63" s="6">
+        <v>16</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63">
+        <v>0.94893995618813842</v>
+      </c>
+      <c r="K63">
+        <v>0.94722998964400507</v>
+      </c>
+      <c r="L63">
+        <v>0.94423243980104099</v>
+      </c>
+      <c r="M63">
+        <v>0.93926357732349897</v>
+      </c>
+      <c r="N63">
+        <v>0.93713152127173416</v>
+      </c>
+      <c r="O63">
+        <v>0.93724400280068854</v>
+      </c>
+      <c r="P63">
+        <v>0.93609277288773551</v>
+      </c>
+      <c r="Q63">
+        <v>0.93396493941040049</v>
+      </c>
+      <c r="R63">
+        <v>0.93485454389636602</v>
+      </c>
+      <c r="S63">
+        <v>0.9355846214125727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>92</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>155</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model092</v>
+      </c>
+      <c r="H64" s="6">
+        <v>16</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J64">
+        <v>0.95080712324323857</v>
+      </c>
+      <c r="K64">
+        <v>0.9450468594326652</v>
+      </c>
+      <c r="L64">
+        <v>0.94446461709692575</v>
+      </c>
+      <c r="M64">
+        <v>0.94355914768219629</v>
+      </c>
+      <c r="N64">
+        <v>0.94208757825122413</v>
+      </c>
+      <c r="O64">
+        <v>0.94081123624393748</v>
+      </c>
+      <c r="P64">
+        <v>0.94052575497708935</v>
+      </c>
+      <c r="Q64">
+        <v>0.93949654975578845</v>
+      </c>
+      <c r="R64">
+        <v>0.93839913190013158</v>
+      </c>
+      <c r="S64">
+        <v>0.93778972227898805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="1">
+        <v>155</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>C4Model093</v>
+      </c>
+      <c r="H65" s="6">
+        <v>16</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65">
+        <v>0.94818552334215278</v>
+      </c>
+      <c r="K65">
+        <v>0.94311193798340254</v>
+      </c>
+      <c r="L65">
+        <v>0.94509978809592543</v>
+      </c>
+      <c r="M65">
+        <v>0.94288870927745927</v>
+      </c>
+      <c r="N65">
+        <v>0.94090039296893213</v>
+      </c>
+      <c r="O65">
+        <v>0.93915879848591666</v>
+      </c>
+      <c r="P65">
+        <v>0.93792092284547168</v>
+      </c>
+      <c r="Q65">
+        <v>0.93711801864492672</v>
+      </c>
+      <c r="R65">
+        <v>0.9362058762704949</v>
+      </c>
+      <c r="S65">
+        <v>0.93505645857278463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>165</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" ref="G66:G73" si="1">CONCATENATE("C4Model",TEXT(A66,"000"),"")</f>
+        <v>C4Model094</v>
+      </c>
+      <c r="H66" s="6">
+        <v>17</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66">
+        <v>0.94731600073305988</v>
+      </c>
+      <c r="K66">
+        <v>0.94184695406192043</v>
+      </c>
+      <c r="L66">
+        <v>0.94373488042123355</v>
+      </c>
+      <c r="M66">
+        <v>0.93877076542198057</v>
+      </c>
+      <c r="N66">
+        <v>0.93709741756720022</v>
+      </c>
+      <c r="O66">
+        <v>0.9361377807250415</v>
+      </c>
+      <c r="P66">
+        <v>0.93675383073097607</v>
+      </c>
+      <c r="Q66">
+        <v>0.93382148036443147</v>
+      </c>
+      <c r="R66">
+        <v>0.93380138696543147</v>
+      </c>
+      <c r="S66">
+        <v>0.93659136991651326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>165</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model095</v>
+      </c>
+      <c r="H67" s="6">
+        <v>17</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J67">
+        <v>0.9444148993957695</v>
+      </c>
+      <c r="K67">
+        <v>0.94020006286111979</v>
+      </c>
+      <c r="L67">
+        <v>0.9377257684777095</v>
+      </c>
+      <c r="M67">
+        <v>0.93646573842250214</v>
+      </c>
+      <c r="N67">
+        <v>0.93653531837328707</v>
+      </c>
+      <c r="O67">
+        <v>0.93857919399409162</v>
+      </c>
+      <c r="P67">
+        <v>0.93841360269054686</v>
+      </c>
+      <c r="Q67">
+        <v>0.93832679698489196</v>
+      </c>
+      <c r="R67">
+        <v>0.93490575822956701</v>
+      </c>
+      <c r="S67">
+        <v>0.9356793106321486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>165</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model096</v>
+      </c>
+      <c r="H68" s="6">
+        <v>17</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68">
+        <v>0.9452425904237296</v>
+      </c>
+      <c r="K68">
+        <v>0.93526887625291</v>
+      </c>
+      <c r="L68">
+        <v>0.93623953125463633</v>
+      </c>
+      <c r="M68">
+        <v>0.93884926963372217</v>
+      </c>
+      <c r="N68">
+        <v>0.93707169038971527</v>
+      </c>
+      <c r="O68">
+        <v>0.93551799369444921</v>
+      </c>
+      <c r="P68">
+        <v>0.93510448531716339</v>
+      </c>
+      <c r="Q68">
+        <v>0.93681962886542669</v>
+      </c>
+      <c r="R68">
+        <v>0.93573930287074047</v>
+      </c>
+      <c r="S68">
+        <v>0.93400833289301377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>165</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model097</v>
+      </c>
+      <c r="H69" s="6">
+        <v>17</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J69">
+        <v>0.94225751998337715</v>
+      </c>
+      <c r="K69">
+        <v>0.93699376641932564</v>
+      </c>
+      <c r="L69">
+        <v>0.94142117636483402</v>
+      </c>
+      <c r="M69">
+        <v>0.93847040610227128</v>
+      </c>
+      <c r="N69">
+        <v>0.93728432253236493</v>
+      </c>
+      <c r="O69">
+        <v>0.93767403869114041</v>
+      </c>
+      <c r="P69">
+        <v>0.93489754878364539</v>
+      </c>
+      <c r="Q69">
+        <v>0.93490179382946115</v>
+      </c>
+      <c r="R69">
+        <v>0.93355487816551119</v>
+      </c>
+      <c r="S69">
+        <v>0.93267478809593796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>175</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model098</v>
+      </c>
+      <c r="H70" s="6">
+        <v>18</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70">
+        <v>0.9523294934389599</v>
+      </c>
+      <c r="K70">
+        <v>0.94680608656515475</v>
+      </c>
+      <c r="L70">
+        <v>0.94809971513220648</v>
+      </c>
+      <c r="M70">
+        <v>0.94384296554411928</v>
+      </c>
+      <c r="N70">
+        <v>0.94177010478173384</v>
+      </c>
+      <c r="O70">
+        <v>0.94104618914476978</v>
+      </c>
+      <c r="P70">
+        <v>0.93974772731338596</v>
+      </c>
+      <c r="Q70">
+        <v>0.93825968559471307</v>
+      </c>
+      <c r="R70">
+        <v>0.93886971327085278</v>
+      </c>
+      <c r="S70">
+        <v>0.93995799133222768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1">
+        <v>175</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model099</v>
+      </c>
+      <c r="H71" s="6">
+        <v>18</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J71">
+        <v>0.94953783006759396</v>
+      </c>
+      <c r="K71">
+        <v>0.944531950108359</v>
+      </c>
+      <c r="L71">
+        <v>0.94261016381447038</v>
+      </c>
+      <c r="M71">
+        <v>0.93901358284296488</v>
+      </c>
+      <c r="N71">
+        <v>0.9393631411969009</v>
+      </c>
+      <c r="O71">
+        <v>0.94116919104515306</v>
+      </c>
+      <c r="P71">
+        <v>0.94046439016374594</v>
+      </c>
+      <c r="Q71">
+        <v>0.93726362179602007</v>
+      </c>
+      <c r="R71">
+        <v>0.9355200356879253</v>
+      </c>
+      <c r="S71">
+        <v>0.93483217017143039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>175</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model100</v>
+      </c>
+      <c r="H72" s="6">
+        <v>18</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72">
+        <v>0.95128689918120013</v>
+      </c>
+      <c r="K72">
+        <v>0.9437280109852435</v>
+      </c>
+      <c r="L72">
+        <v>0.94092693701901142</v>
+      </c>
+      <c r="M72">
+        <v>0.94017316041611643</v>
+      </c>
+      <c r="N72">
+        <v>0.9401756558712937</v>
+      </c>
+      <c r="O72">
+        <v>0.93734200009778246</v>
+      </c>
+      <c r="P72">
+        <v>0.93599260712121124</v>
+      </c>
+      <c r="Q72">
+        <v>0.93574666602313528</v>
+      </c>
+      <c r="R72">
+        <v>0.93178371305491048</v>
+      </c>
+      <c r="S72">
+        <v>0.9313521405165669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5">
+        <v>175</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C4Model101</v>
+      </c>
+      <c r="H73" s="6">
+        <v>18</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73">
+        <v>0.94649143582715156</v>
+      </c>
+      <c r="K73">
+        <v>0.94007427229504015</v>
+      </c>
+      <c r="L73">
+        <v>0.94121804614595439</v>
+      </c>
+      <c r="M73">
+        <v>0.93738456841331141</v>
+      </c>
+      <c r="N73">
+        <v>0.93680689514988602</v>
+      </c>
+      <c r="O73">
+        <v>0.9333766553187457</v>
+      </c>
+      <c r="P73">
+        <v>0.93248967496264179</v>
+      </c>
+      <c r="Q73">
+        <v>0.93240491162522476</v>
+      </c>
+      <c r="R73">
+        <v>0.93075112893221679</v>
+      </c>
+      <c r="S73">
+        <v>0.92929959163046383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="62" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="A121" sqref="A121:I121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -4188,7 +8616,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4217,7 +8645,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4246,7 +8674,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4275,7 +8703,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4304,7 +8732,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4333,7 +8761,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4362,7 +8790,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4391,7 +8819,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4420,7 +8848,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4449,7 +8877,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4478,7 +8906,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4507,7 +8935,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4536,7 +8964,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4565,7 +8993,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4594,7 +9022,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4623,7 +9051,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4652,7 +9080,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4681,7 +9109,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4710,7 +9138,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4739,7 +9167,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4768,7 +9196,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4798,7 +9226,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4828,7 +9256,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4858,7 +9286,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4888,7 +9316,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4918,7 +9346,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4948,7 +9376,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4978,7 +9406,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5008,7 +9436,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5038,7 +9466,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5068,7 +9496,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5098,7 +9526,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5128,7 +9556,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5158,7 +9586,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5188,7 +9616,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5218,7 +9646,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5248,7 +9676,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5278,7 +9706,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5308,7 +9736,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5338,7 +9766,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5368,7 +9796,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5398,7 +9826,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5428,7 +9856,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5458,7 +9886,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5488,7 +9916,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5518,7 +9946,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5548,7 +9976,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5578,7 +10006,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5608,7 +10036,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5638,7 +10066,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5668,7 +10096,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5698,7 +10126,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5728,7 +10156,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5758,7 +10186,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5788,7 +10216,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5818,7 +10246,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5848,7 +10276,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5878,7 +10306,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5908,7 +10336,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5938,7 +10366,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5968,7 +10396,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5998,7 +10426,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6028,7 +10456,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6058,7 +10486,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6088,7 +10516,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6118,7 +10546,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6148,7 +10576,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6178,7 +10606,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6208,7 +10636,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6238,7 +10666,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6268,7 +10696,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6298,7 +10726,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6328,7 +10756,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6358,7 +10786,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6388,7 +10816,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6418,7 +10846,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6448,7 +10876,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6478,7 +10906,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6508,7 +10936,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6538,7 +10966,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6568,7 +10996,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6598,7 +11026,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6628,7 +11056,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6658,7 +11086,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6688,7 +11116,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6718,7 +11146,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6748,7 +11176,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6778,7 +11206,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6808,7 +11236,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6838,7 +11266,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6868,7 +11296,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6898,7 +11326,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6928,7 +11356,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6958,7 +11386,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6988,7 +11416,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7018,7 +11446,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7048,7 +11476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7078,7 +11506,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7108,7 +11536,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7138,7 +11566,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7168,7 +11596,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7197,7 +11625,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7226,7 +11654,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7255,7 +11683,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7284,7 +11712,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7313,7 +11741,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7342,7 +11770,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7371,7 +11799,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7400,7 +11828,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7429,7 +11857,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7458,7 +11886,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7487,7 +11915,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7516,7 +11944,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7545,7 +11973,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7574,7 +12002,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7603,7 +12031,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7632,7 +12060,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7661,7 +12089,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7690,7 +12118,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7719,7 +12147,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7748,25 +12176,25 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
   </sheetData>

--- a/projects/4.decorrelation/decorrelation.xlsx
+++ b/projects/4.decorrelation/decorrelation.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="C4Model" sheetId="1" r:id="rId1"/>
-    <sheet name="C4Results" sheetId="3" r:id="rId2"/>
+    <sheet name="C4ModelResults" sheetId="3" r:id="rId2"/>
     <sheet name="CVert" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -1612,31 +1612,31 @@
     <t>res (1 Hz)</t>
   </si>
   <si>
+    <t>res (2 Hz)</t>
+  </si>
+  <si>
+    <t>res (3 Hz)</t>
+  </si>
+  <si>
+    <t>res (4 Hz)</t>
+  </si>
+  <si>
+    <t>res (5 Hz)</t>
+  </si>
+  <si>
+    <t>res (6 Hz)</t>
+  </si>
+  <si>
+    <t>res (7 Hz)</t>
+  </si>
+  <si>
+    <t>res (8 Hz)</t>
+  </si>
+  <si>
+    <t>res (9 Hz)</t>
+  </si>
+  <si>
     <t>res (10 Hz)</t>
-  </si>
-  <si>
-    <t>res (9 Hz)</t>
-  </si>
-  <si>
-    <t>res (8 Hz)</t>
-  </si>
-  <si>
-    <t>res (7 Hz)</t>
-  </si>
-  <si>
-    <t>res (6 Hz)</t>
-  </si>
-  <si>
-    <t>res (5 Hz)</t>
-  </si>
-  <si>
-    <t>res (4 Hz)</t>
-  </si>
-  <si>
-    <t>res (3 Hz)</t>
-  </si>
-  <si>
-    <t>res (2 Hz)</t>
   </si>
 </sst>
 </file>
@@ -4181,7 +4181,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J2" sqref="J2:S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4218,31 +4218,31 @@
         <v>526</v>
       </c>
       <c r="K1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="N1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O1" t="s">
         <v>531</v>
       </c>
       <c r="P1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Q1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="R1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="S1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4275,34 +4275,34 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.95393314546875363</v>
+        <v>0.94897000850248636</v>
       </c>
       <c r="K2">
-        <v>0.94931811969663071</v>
+        <v>0.94569651838123092</v>
       </c>
       <c r="L2">
-        <v>0.95188383429517276</v>
+        <v>0.94835586884953804</v>
       </c>
       <c r="M2">
-        <v>0.94943411445543413</v>
+        <v>0.94627975508892848</v>
       </c>
       <c r="N2">
-        <v>0.94716404684918576</v>
+        <v>0.94391005618959634</v>
       </c>
       <c r="O2">
-        <v>0.94910108380378344</v>
+        <v>0.94560263735740746</v>
       </c>
       <c r="P2">
-        <v>0.94830887934322738</v>
+        <v>0.9445983337617655</v>
       </c>
       <c r="Q2">
-        <v>0.94674731992994432</v>
+        <v>0.94328719280056894</v>
       </c>
       <c r="R2">
-        <v>0.94572714435853167</v>
+        <v>0.94234609210667786</v>
       </c>
       <c r="S2">
-        <v>0.94466339945456745</v>
+        <v>0.94093739736797077</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4335,34 +4335,34 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>0.95202454929926617</v>
+        <v>0.94644060410398312</v>
       </c>
       <c r="K3">
-        <v>0.95146628832896596</v>
+        <v>0.94702439560901575</v>
       </c>
       <c r="L3">
-        <v>0.94935889059843637</v>
+        <v>0.94454645775408641</v>
       </c>
       <c r="M3">
-        <v>0.94775057978272192</v>
+        <v>0.94296914325955838</v>
       </c>
       <c r="N3">
-        <v>0.94512798093616279</v>
+        <v>0.9407424800013563</v>
       </c>
       <c r="O3">
-        <v>0.94556655131457579</v>
+        <v>0.94122894972476423</v>
       </c>
       <c r="P3">
-        <v>0.94678632048159284</v>
+        <v>0.94276178467867611</v>
       </c>
       <c r="Q3">
-        <v>0.94556377305114869</v>
+        <v>0.9413653972153142</v>
       </c>
       <c r="R3">
-        <v>0.94484310533912885</v>
+        <v>0.94029227721034925</v>
       </c>
       <c r="S3">
-        <v>0.94309804370115879</v>
+        <v>0.93913339014874053</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4395,34 +4395,34 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>0.95445753747120976</v>
+        <v>0.94916983286057643</v>
       </c>
       <c r="K4">
-        <v>0.95039895425360033</v>
+        <v>0.94512661070004911</v>
       </c>
       <c r="L4">
-        <v>0.94861697096416864</v>
+        <v>0.94334041301056037</v>
       </c>
       <c r="M4">
-        <v>0.94829018291840173</v>
+        <v>0.94327197466530754</v>
       </c>
       <c r="N4">
-        <v>0.94679778107441159</v>
+        <v>0.94209183538135033</v>
       </c>
       <c r="O4">
-        <v>0.94647605609538332</v>
+        <v>0.94135532498636865</v>
       </c>
       <c r="P4">
-        <v>0.94576508487971422</v>
+        <v>0.940455509131644</v>
       </c>
       <c r="Q4">
-        <v>0.9437113702492731</v>
+        <v>0.93905880421480037</v>
       </c>
       <c r="R4">
-        <v>0.94284851708571094</v>
+        <v>0.93808306955604359</v>
       </c>
       <c r="S4">
-        <v>0.94157084150168713</v>
+        <v>0.93689227807278563</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4455,34 +4455,34 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>0.95246218250053793</v>
+        <v>0.94635726897764216</v>
       </c>
       <c r="K5">
-        <v>0.9477666054987568</v>
+        <v>0.9422274115531275</v>
       </c>
       <c r="L5">
-        <v>0.94794401467364264</v>
+        <v>0.94280172017334773</v>
       </c>
       <c r="M5">
-        <v>0.94798067838417843</v>
+        <v>0.94290701860650461</v>
       </c>
       <c r="N5">
-        <v>0.94615297694466294</v>
+        <v>0.94117232067638856</v>
       </c>
       <c r="O5">
-        <v>0.94493948750042667</v>
+        <v>0.93967009659494272</v>
       </c>
       <c r="P5">
-        <v>0.94481691206164142</v>
+        <v>0.93894719037567365</v>
       </c>
       <c r="Q5">
-        <v>0.94447563710254057</v>
+        <v>0.93865875021956491</v>
       </c>
       <c r="R5">
-        <v>0.94268575932097043</v>
+        <v>0.93729611992674433</v>
       </c>
       <c r="S5">
-        <v>0.94085554577849928</v>
+        <v>0.93507135132577357</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4515,34 +4515,34 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>0.9502991960722077</v>
+        <v>0.94475833973649714</v>
       </c>
       <c r="K6">
-        <v>0.94449960547725043</v>
+        <v>0.94045514446405487</v>
       </c>
       <c r="L6">
-        <v>0.94713930974169402</v>
+        <v>0.94315863667061839</v>
       </c>
       <c r="M6">
-        <v>0.94557840604689969</v>
+        <v>0.94219478857331274</v>
       </c>
       <c r="N6">
-        <v>0.94285713597773335</v>
+        <v>0.93896030518016205</v>
       </c>
       <c r="O6">
-        <v>0.94211217223727373</v>
+        <v>0.93797634038625488</v>
       </c>
       <c r="P6">
-        <v>0.94103282582658609</v>
+        <v>0.93659330045133782</v>
       </c>
       <c r="Q6">
-        <v>0.93983518015345957</v>
+        <v>0.93531637256356182</v>
       </c>
       <c r="R6">
-        <v>0.94176810813237977</v>
+        <v>0.93834436672551724</v>
       </c>
       <c r="S6">
-        <v>0.94174852944514609</v>
+        <v>0.93751602198605866</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4575,34 +4575,34 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>0.94747702952368984</v>
+        <v>0.94091483402071541</v>
       </c>
       <c r="K7">
-        <v>0.94742090022750636</v>
+        <v>0.94217331275378602</v>
       </c>
       <c r="L7">
-        <v>0.94495617649141084</v>
+        <v>0.93994245388785003</v>
       </c>
       <c r="M7">
-        <v>0.94254877149083027</v>
+        <v>0.9372771465080274</v>
       </c>
       <c r="N7">
-        <v>0.94138072602844636</v>
+        <v>0.93662891157102479</v>
       </c>
       <c r="O7">
-        <v>0.94419755542335682</v>
+        <v>0.93908469333960654</v>
       </c>
       <c r="P7">
-        <v>0.94319819442487263</v>
+        <v>0.93848061065053001</v>
       </c>
       <c r="Q7">
-        <v>0.94447021230414696</v>
+        <v>0.94004374666508239</v>
       </c>
       <c r="R7">
-        <v>0.94122688744093719</v>
+        <v>0.93613896114097639</v>
       </c>
       <c r="S7">
-        <v>0.94101527740991187</v>
+        <v>0.93561410866922634</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4635,34 +4635,34 @@
         <v>13</v>
       </c>
       <c r="J8">
-        <v>0.94903318040699725</v>
+        <v>0.94234941373381453</v>
       </c>
       <c r="K8">
-        <v>0.94403080957714358</v>
+        <v>0.93814883899857493</v>
       </c>
       <c r="L8">
-        <v>0.94260057060401647</v>
+        <v>0.93689818720577933</v>
       </c>
       <c r="M8">
-        <v>0.94322486063913791</v>
+        <v>0.93772911537765158</v>
       </c>
       <c r="N8">
-        <v>0.9427546742151296</v>
+        <v>0.93742325046562114</v>
       </c>
       <c r="O8">
-        <v>0.9411086741041006</v>
+        <v>0.93560390064685595</v>
       </c>
       <c r="P8">
-        <v>0.93895865189985062</v>
+        <v>0.93371023901356298</v>
       </c>
       <c r="Q8">
-        <v>0.94011044385789577</v>
+        <v>0.93426110256321027</v>
       </c>
       <c r="R8">
-        <v>0.93968114899198951</v>
+        <v>0.93411704823819608</v>
       </c>
       <c r="S8">
-        <v>0.9391804322421532</v>
+        <v>0.9331258892357287</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4695,34 +4695,34 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>0.94660439861448697</v>
+        <v>0.93958758709000145</v>
       </c>
       <c r="K9">
-        <v>0.94223985129047161</v>
+        <v>0.93575033707301059</v>
       </c>
       <c r="L9">
-        <v>0.94399360789656639</v>
+        <v>0.93823770409414697</v>
       </c>
       <c r="M9">
-        <v>0.94297191080123766</v>
+        <v>0.93726192373511441</v>
       </c>
       <c r="N9">
-        <v>0.94032076385079322</v>
+        <v>0.93431649609126388</v>
       </c>
       <c r="O9">
-        <v>0.94060100952767134</v>
+        <v>0.93423564508382639</v>
       </c>
       <c r="P9">
-        <v>0.93940505207989211</v>
+        <v>0.93370395228731229</v>
       </c>
       <c r="Q9">
-        <v>0.93912361424506952</v>
+        <v>0.9330410804547109</v>
       </c>
       <c r="R9">
-        <v>0.93715763680477138</v>
+        <v>0.93117120083297211</v>
       </c>
       <c r="S9">
-        <v>0.93529161650480608</v>
+        <v>0.92885194793810155</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4755,34 +4755,34 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <v>0.95218807563254948</v>
+        <v>0.94699247208141402</v>
       </c>
       <c r="K10">
-        <v>0.94597272328748327</v>
+        <v>0.94181462187530607</v>
       </c>
       <c r="L10">
-        <v>0.94775528676187959</v>
+        <v>0.94476002117121882</v>
       </c>
       <c r="M10">
-        <v>0.9445875451628396</v>
+        <v>0.94074906900108157</v>
       </c>
       <c r="N10">
-        <v>0.94233713818572751</v>
+        <v>0.93894426761887018</v>
       </c>
       <c r="O10">
-        <v>0.94300996166336426</v>
+        <v>0.93969671967000434</v>
       </c>
       <c r="P10">
-        <v>0.94098724183827587</v>
+        <v>0.93705147011815604</v>
       </c>
       <c r="Q10">
-        <v>0.93981237806553342</v>
+        <v>0.93587537941181687</v>
       </c>
       <c r="R10">
-        <v>0.94050984754743139</v>
+        <v>0.93630179093733279</v>
       </c>
       <c r="S10">
-        <v>0.9408141274115901</v>
+        <v>0.9367622715612498</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4815,34 +4815,34 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <v>0.94681458611662372</v>
+        <v>0.9401043914435453</v>
       </c>
       <c r="K11">
-        <v>0.94542106056614317</v>
+        <v>0.94048300067889556</v>
       </c>
       <c r="L11">
-        <v>0.94297281240545872</v>
+        <v>0.93814701942867262</v>
       </c>
       <c r="M11">
-        <v>0.94068484728849866</v>
+        <v>0.93550031199747252</v>
       </c>
       <c r="N11">
-        <v>0.93965889721934892</v>
+        <v>0.93506677986238818</v>
       </c>
       <c r="O11">
-        <v>0.94083287218045009</v>
+        <v>0.93652158488144432</v>
       </c>
       <c r="P11">
-        <v>0.93986181475654118</v>
+        <v>0.93580338908628513</v>
       </c>
       <c r="Q11">
-        <v>0.94116137008654244</v>
+        <v>0.93567231140808438</v>
       </c>
       <c r="R11">
-        <v>0.93783830418016889</v>
+        <v>0.93305540070554316</v>
       </c>
       <c r="S11">
-        <v>0.93675585946641748</v>
+        <v>0.93198211279832199</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4875,34 +4875,34 @@
         <v>19</v>
       </c>
       <c r="J12">
-        <v>0.94970556151106711</v>
+        <v>0.94346015179182696</v>
       </c>
       <c r="K12">
-        <v>0.94294678362775353</v>
+        <v>0.93681416769397763</v>
       </c>
       <c r="L12">
-        <v>0.94219373365585202</v>
+        <v>0.9362618074580159</v>
       </c>
       <c r="M12">
-        <v>0.94153634747695036</v>
+        <v>0.93528708049706721</v>
       </c>
       <c r="N12">
-        <v>0.93999963579444556</v>
+        <v>0.93466074534486454</v>
       </c>
       <c r="O12">
-        <v>0.93716738022578761</v>
+        <v>0.93180120821175638</v>
       </c>
       <c r="P12">
-        <v>0.93641660556968243</v>
+        <v>0.93123389220039288</v>
       </c>
       <c r="Q12">
-        <v>0.93645430905334381</v>
+        <v>0.92994997983804617</v>
       </c>
       <c r="R12">
-        <v>0.93633064105416641</v>
+        <v>0.93066922667880891</v>
       </c>
       <c r="S12">
-        <v>0.93415364966912617</v>
+        <v>0.92903018225486578</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -4935,34 +4935,34 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>0.94637069144830499</v>
+        <v>0.93989698932405197</v>
       </c>
       <c r="K13">
-        <v>0.94064676468839947</v>
+        <v>0.93454403930610885</v>
       </c>
       <c r="L13">
-        <v>0.9411029098951742</v>
+        <v>0.93487602158558125</v>
       </c>
       <c r="M13">
-        <v>0.94003099313664729</v>
+        <v>0.93386801740626812</v>
       </c>
       <c r="N13">
-        <v>0.93811668358416356</v>
+        <v>0.93175667918790706</v>
       </c>
       <c r="O13">
-        <v>0.93603390810288833</v>
+        <v>0.93002235375306763</v>
       </c>
       <c r="P13">
-        <v>0.93534646001850008</v>
+        <v>0.92894892249633265</v>
       </c>
       <c r="Q13">
-        <v>0.93505501776932221</v>
+        <v>0.92857452023860898</v>
       </c>
       <c r="R13">
-        <v>0.93390490143536686</v>
+        <v>0.92789308112097002</v>
       </c>
       <c r="S13">
-        <v>0.93220982531851138</v>
+        <v>0.92561949807912847</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -4995,34 +4995,34 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>0.94130161700219728</v>
+        <v>0.9349750644631043</v>
       </c>
       <c r="K14">
-        <v>0.93302384281501405</v>
+        <v>0.92841930103394565</v>
       </c>
       <c r="L14">
-        <v>0.93360449134433765</v>
+        <v>0.93052850540836285</v>
       </c>
       <c r="M14">
-        <v>0.93339477325738818</v>
+        <v>0.92929683959373977</v>
       </c>
       <c r="N14">
-        <v>0.93066500728784107</v>
+        <v>0.92574721205143617</v>
       </c>
       <c r="O14">
-        <v>0.93045079166065581</v>
+        <v>0.92534426515348511</v>
       </c>
       <c r="P14">
-        <v>0.92949917537129689</v>
+        <v>0.92495863487725227</v>
       </c>
       <c r="Q14">
-        <v>0.92915104650910485</v>
+        <v>0.92449691652659172</v>
       </c>
       <c r="R14">
-        <v>0.930521444237419</v>
+        <v>0.9262571235427639</v>
       </c>
       <c r="S14">
-        <v>0.93044486057897535</v>
+        <v>0.92590470312744644</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5055,34 +5055,34 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <v>0.93423177687030556</v>
+        <v>0.92743670886417506</v>
       </c>
       <c r="K15">
-        <v>0.93148812295264716</v>
+        <v>0.92613320309827474</v>
       </c>
       <c r="L15">
-        <v>0.93022606022131182</v>
+        <v>0.92448893820763012</v>
       </c>
       <c r="M15">
-        <v>0.92869436949609063</v>
+        <v>0.92366294178831065</v>
       </c>
       <c r="N15">
-        <v>0.92888251380950249</v>
+        <v>0.92381795049450532</v>
       </c>
       <c r="O15">
-        <v>0.92908897448204841</v>
+        <v>0.92409623186167189</v>
       </c>
       <c r="P15">
-        <v>0.93003007908106805</v>
+        <v>0.9242941544023876</v>
       </c>
       <c r="Q15">
-        <v>0.92992237407927636</v>
+        <v>0.92378713657482869</v>
       </c>
       <c r="R15">
-        <v>0.92661059994240724</v>
+        <v>0.92104262660210923</v>
       </c>
       <c r="S15">
-        <v>0.92727839998780781</v>
+        <v>0.92103731336598327</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5115,34 +5115,34 @@
         <v>25</v>
       </c>
       <c r="J16">
-        <v>0.93670936327950338</v>
+        <v>0.92889804547158894</v>
       </c>
       <c r="K16">
-        <v>0.93174175367228718</v>
+        <v>0.92478981480777478</v>
       </c>
       <c r="L16">
-        <v>0.93155821095525082</v>
+        <v>0.92554719972003818</v>
       </c>
       <c r="M16">
-        <v>0.93120111071172407</v>
+        <v>0.92460179883954929</v>
       </c>
       <c r="N16">
-        <v>0.93007772671969069</v>
+        <v>0.92412787775174021</v>
       </c>
       <c r="O16">
-        <v>0.92805926331966371</v>
+        <v>0.92175975684206934</v>
       </c>
       <c r="P16">
-        <v>0.92742910216635466</v>
+        <v>0.92065834311088057</v>
       </c>
       <c r="Q16">
-        <v>0.92801783406662919</v>
+        <v>0.92093623231104749</v>
       </c>
       <c r="R16">
-        <v>0.92614252503747962</v>
+        <v>0.91938687694085064</v>
       </c>
       <c r="S16">
-        <v>0.92610124363797686</v>
+        <v>0.92000390861621828</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -5175,34 +5175,34 @@
         <v>26</v>
       </c>
       <c r="J17">
-        <v>0.93387440582055925</v>
+        <v>0.92517118286375921</v>
       </c>
       <c r="K17">
-        <v>0.92951904986533895</v>
+        <v>0.9222975068517697</v>
       </c>
       <c r="L17">
-        <v>0.93166780177820907</v>
+        <v>0.9246620832546848</v>
       </c>
       <c r="M17">
-        <v>0.92957620267466601</v>
+        <v>0.9226580230528304</v>
       </c>
       <c r="N17">
-        <v>0.92763659930443532</v>
+        <v>0.92074962285618189</v>
       </c>
       <c r="O17">
-        <v>0.92690941294371243</v>
+        <v>0.92046162924882802</v>
       </c>
       <c r="P17">
-        <v>0.92647129981028531</v>
+        <v>0.9190217073987087</v>
       </c>
       <c r="Q17">
-        <v>0.92638311416409969</v>
+        <v>0.91889117221156369</v>
       </c>
       <c r="R17">
-        <v>0.92444019059268889</v>
+        <v>0.91749423489131543</v>
       </c>
       <c r="S17">
-        <v>0.92350600201999256</v>
+        <v>0.9163856177475137</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5235,34 +5235,34 @@
         <v>29</v>
       </c>
       <c r="J18">
-        <v>0.94793235728492831</v>
+        <v>0.9428262595014798</v>
       </c>
       <c r="K18">
-        <v>0.93990978076333143</v>
+        <v>0.93592595093418152</v>
       </c>
       <c r="L18">
-        <v>0.93907671318420094</v>
+        <v>0.93559650923576632</v>
       </c>
       <c r="M18">
-        <v>0.9333229337352752</v>
+        <v>0.93048999524488774</v>
       </c>
       <c r="N18">
-        <v>0.93068660418521232</v>
+        <v>0.9275508307733269</v>
       </c>
       <c r="O18">
-        <v>0.92438290518169863</v>
+        <v>0.92048897963500365</v>
       </c>
       <c r="P18">
-        <v>0.92673230816875141</v>
+        <v>0.92245425150607441</v>
       </c>
       <c r="Q18">
-        <v>0.92321533267905054</v>
+        <v>0.91950515656298037</v>
       </c>
       <c r="R18">
-        <v>0.92349837023045855</v>
+        <v>0.91955515975168833</v>
       </c>
       <c r="S18">
-        <v>0.92297753236114843</v>
+        <v>0.92060373351121139</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -5295,34 +5295,34 @@
         <v>30</v>
       </c>
       <c r="J19">
-        <v>0.94053305546577437</v>
+        <v>0.93350384109673878</v>
       </c>
       <c r="K19">
-        <v>0.93982725511063747</v>
+        <v>0.93521665974428725</v>
       </c>
       <c r="L19">
-        <v>0.93427867801490627</v>
+        <v>0.9286060978237145</v>
       </c>
       <c r="M19">
-        <v>0.93325512181811565</v>
+        <v>0.92788404437145</v>
       </c>
       <c r="N19">
-        <v>0.93629316865187551</v>
+        <v>0.93087434785195344</v>
       </c>
       <c r="O19">
-        <v>0.93665269323521916</v>
+        <v>0.93202834603977669</v>
       </c>
       <c r="P19">
-        <v>0.9304626961189939</v>
+        <v>0.9261593754893801</v>
       </c>
       <c r="Q19">
-        <v>0.93066574621620957</v>
+        <v>0.92634062728191235</v>
       </c>
       <c r="R19">
-        <v>0.93124558446370376</v>
+        <v>0.9264650986375812</v>
       </c>
       <c r="S19">
-        <v>0.93232379019619327</v>
+        <v>0.92680527399891621</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -5355,34 +5355,34 @@
         <v>31</v>
       </c>
       <c r="J20">
-        <v>0.94248435523007346</v>
+        <v>0.93510401992840331</v>
       </c>
       <c r="K20">
-        <v>0.93427450208235452</v>
+        <v>0.92791768086856197</v>
       </c>
       <c r="L20">
-        <v>0.93573974586729458</v>
+        <v>0.9294391503025653</v>
       </c>
       <c r="M20">
-        <v>0.93764051097947432</v>
+        <v>0.93184049144298098</v>
       </c>
       <c r="N20">
-        <v>0.93505688190738379</v>
+        <v>0.92963320179787001</v>
       </c>
       <c r="O20">
-        <v>0.93246932824181894</v>
+        <v>0.92612417766845279</v>
       </c>
       <c r="P20">
-        <v>0.93280124717812141</v>
+        <v>0.92681951342823865</v>
       </c>
       <c r="Q20">
-        <v>0.93306848650027807</v>
+        <v>0.9265011746508317</v>
       </c>
       <c r="R20">
-        <v>0.93132736612262379</v>
+        <v>0.92505412032102152</v>
       </c>
       <c r="S20">
-        <v>0.93077841300860542</v>
+        <v>0.92491416000619031</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -5415,34 +5415,34 @@
         <v>32</v>
       </c>
       <c r="J21">
-        <v>0.94039245685701911</v>
+        <v>0.93227026389949152</v>
       </c>
       <c r="K21">
-        <v>0.93470952411018893</v>
+        <v>0.92734298184798936</v>
       </c>
       <c r="L21">
-        <v>0.93709764407164464</v>
+        <v>0.93137345102430946</v>
       </c>
       <c r="M21">
-        <v>0.93509047954223767</v>
+        <v>0.92822458724232326</v>
       </c>
       <c r="N21">
-        <v>0.93366836295676503</v>
+        <v>0.92704915364024087</v>
       </c>
       <c r="O21">
-        <v>0.93245908644218745</v>
+        <v>0.92597683631644578</v>
       </c>
       <c r="P21">
-        <v>0.93166548294880869</v>
+        <v>0.92503947612397752</v>
       </c>
       <c r="Q21">
-        <v>0.93197242180487272</v>
+        <v>0.92519317113929589</v>
       </c>
       <c r="R21">
-        <v>0.92923015689017174</v>
+        <v>0.92305206672020146</v>
       </c>
       <c r="S21">
-        <v>0.92788092739404227</v>
+        <v>0.92150348091783085</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -5475,34 +5475,34 @@
         <v>35</v>
       </c>
       <c r="J22">
-        <v>0.94910147634569464</v>
+        <v>0.94376009266556427</v>
       </c>
       <c r="K22">
-        <v>0.9434659034736943</v>
+        <v>0.9390838730568315</v>
       </c>
       <c r="L22">
-        <v>0.94244768296333892</v>
+        <v>0.93970482700723046</v>
       </c>
       <c r="M22">
-        <v>0.94216137537955813</v>
+        <v>0.93910527925255138</v>
       </c>
       <c r="N22">
-        <v>0.93855732307370598</v>
+        <v>0.93426227908620885</v>
       </c>
       <c r="O22">
-        <v>0.93789936448280442</v>
+        <v>0.93315894791479725</v>
       </c>
       <c r="P22">
-        <v>0.93631086097966898</v>
+        <v>0.93193112364022868</v>
       </c>
       <c r="Q22">
-        <v>0.93494657788553848</v>
+        <v>0.93133364676192654</v>
       </c>
       <c r="R22">
-        <v>0.9374714660821909</v>
+        <v>0.93433910877691329</v>
       </c>
       <c r="S22">
-        <v>0.93657250156446481</v>
+        <v>0.9322859298906544</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -5535,34 +5535,34 @@
         <v>36</v>
       </c>
       <c r="J23">
-        <v>0.94292568083003037</v>
+        <v>0.93588672493170721</v>
       </c>
       <c r="K23">
-        <v>0.94195776413080234</v>
+        <v>0.93700413185564912</v>
       </c>
       <c r="L23">
-        <v>0.93784463009262942</v>
+        <v>0.93157464764860809</v>
       </c>
       <c r="M23">
-        <v>0.93533034948071292</v>
+        <v>0.9294106755977668</v>
       </c>
       <c r="N23">
-        <v>0.93622628023840415</v>
+        <v>0.93177554241979021</v>
       </c>
       <c r="O23">
-        <v>0.93990840514840135</v>
+        <v>0.93559121663046185</v>
       </c>
       <c r="P23">
-        <v>0.93709352529936019</v>
+        <v>0.93266472247705756</v>
       </c>
       <c r="Q23">
-        <v>0.93976224480002968</v>
+        <v>0.93469886627783805</v>
       </c>
       <c r="R23">
-        <v>0.93605489165158995</v>
+        <v>0.93109102554907963</v>
       </c>
       <c r="S23">
-        <v>0.93639679540907217</v>
+        <v>0.93125797200430227</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -5595,34 +5595,34 @@
         <v>37</v>
       </c>
       <c r="J24">
-        <v>0.94354809491980351</v>
+        <v>0.93665013980913869</v>
       </c>
       <c r="K24">
-        <v>0.93613271869376846</v>
+        <v>0.93027290302910592</v>
       </c>
       <c r="L24">
-        <v>0.93565929961257455</v>
+        <v>0.9295282818375834</v>
       </c>
       <c r="M24">
-        <v>0.93947471932477289</v>
+        <v>0.93409230011771416</v>
       </c>
       <c r="N24">
-        <v>0.93848546785610876</v>
+        <v>0.93285276865949462</v>
       </c>
       <c r="O24">
-        <v>0.93472372562111539</v>
+        <v>0.92914351367557269</v>
       </c>
       <c r="P24">
-        <v>0.93309420246655683</v>
+        <v>0.92774049858034557</v>
       </c>
       <c r="Q24">
-        <v>0.93553135049319014</v>
+        <v>0.92955402756658934</v>
       </c>
       <c r="R24">
-        <v>0.935237926206549</v>
+        <v>0.92916960958382488</v>
       </c>
       <c r="S24">
-        <v>0.93494823083197764</v>
+        <v>0.92886108476547102</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -5655,34 +5655,34 @@
         <v>38</v>
       </c>
       <c r="J25">
-        <v>0.94287050612792822</v>
+        <v>0.93544060285622543</v>
       </c>
       <c r="K25">
-        <v>0.93467590797381284</v>
+        <v>0.92708593718204158</v>
       </c>
       <c r="L25">
-        <v>0.93983175377480033</v>
+        <v>0.93362166536758995</v>
       </c>
       <c r="M25">
-        <v>0.93879511263952786</v>
+        <v>0.93256407666993901</v>
       </c>
       <c r="N25">
-        <v>0.93550108814063782</v>
+        <v>0.92913168757525511</v>
       </c>
       <c r="O25">
-        <v>0.93554379422334666</v>
+        <v>0.92844046069864494</v>
       </c>
       <c r="P25">
-        <v>0.93501223028458269</v>
+        <v>0.92867804210591942</v>
       </c>
       <c r="Q25">
-        <v>0.93479083398922547</v>
+        <v>0.92814155675879273</v>
       </c>
       <c r="R25">
-        <v>0.93250434251500025</v>
+        <v>0.92669032040579102</v>
       </c>
       <c r="S25">
-        <v>0.93276597504779746</v>
+        <v>0.92641529115632948</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -5715,34 +5715,34 @@
         <v>41</v>
       </c>
       <c r="J26">
-        <v>0.95502977751036044</v>
+        <v>0.94967388545449993</v>
       </c>
       <c r="K26">
-        <v>0.94742209125176091</v>
+        <v>0.94358036932774592</v>
       </c>
       <c r="L26">
-        <v>0.95198949993075987</v>
+        <v>0.94868329436746845</v>
       </c>
       <c r="M26">
-        <v>0.94642723338086543</v>
+        <v>0.94288673547451118</v>
       </c>
       <c r="N26">
-        <v>0.94708510539095569</v>
+        <v>0.94311235008491412</v>
       </c>
       <c r="O26">
-        <v>0.9453679941401848</v>
+        <v>0.94173733182540742</v>
       </c>
       <c r="P26">
-        <v>0.9451066384958875</v>
+        <v>0.94117615200112448</v>
       </c>
       <c r="Q26">
-        <v>0.94411775853902569</v>
+        <v>0.93968227720456587</v>
       </c>
       <c r="R26">
-        <v>0.94391951491262382</v>
+        <v>0.93972315020765629</v>
       </c>
       <c r="S26">
-        <v>0.94503587320103699</v>
+        <v>0.94131702906811232</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -5775,34 +5775,34 @@
         <v>42</v>
       </c>
       <c r="J27">
-        <v>0.9527553862298942</v>
+        <v>0.94700787598018921</v>
       </c>
       <c r="K27">
-        <v>0.94943484631127328</v>
+        <v>0.94469790499660111</v>
       </c>
       <c r="L27">
-        <v>0.94663697804763414</v>
+        <v>0.94151507928031886</v>
       </c>
       <c r="M27">
-        <v>0.94575275971801664</v>
+        <v>0.94045827161505069</v>
       </c>
       <c r="N27">
-        <v>0.94733287698907576</v>
+        <v>0.94266487156319101</v>
       </c>
       <c r="O27">
-        <v>0.94906893079541532</v>
+        <v>0.94451312309430735</v>
       </c>
       <c r="P27">
-        <v>0.94722076483645623</v>
+        <v>0.94294131835358297</v>
       </c>
       <c r="Q27">
-        <v>0.94829811906405637</v>
+        <v>0.94351964231580454</v>
       </c>
       <c r="R27">
-        <v>0.94751951043086757</v>
+        <v>0.94284999723338092</v>
       </c>
       <c r="S27">
-        <v>0.94613296129680879</v>
+        <v>0.9409693106670548</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -5835,34 +5835,34 @@
         <v>43</v>
       </c>
       <c r="J28">
-        <v>0.95469282933172517</v>
+        <v>0.94899592988610482</v>
       </c>
       <c r="K28">
-        <v>0.94856070900656853</v>
+        <v>0.94387433738380422</v>
       </c>
       <c r="L28">
-        <v>0.94603132710064375</v>
+        <v>0.94069089186271093</v>
       </c>
       <c r="M28">
-        <v>0.94575137379866347</v>
+        <v>0.94122856026586021</v>
       </c>
       <c r="N28">
-        <v>0.94677709370398777</v>
+        <v>0.94200090088028499</v>
       </c>
       <c r="O28">
-        <v>0.94645764416685374</v>
+        <v>0.94130603956098624</v>
       </c>
       <c r="P28">
-        <v>0.9451172213278326</v>
+        <v>0.94033411834397007</v>
       </c>
       <c r="Q28">
-        <v>0.94497477989746081</v>
+        <v>0.93962831855819928</v>
       </c>
       <c r="R28">
-        <v>0.94358855837670785</v>
+        <v>0.93830763246015936</v>
       </c>
       <c r="S28">
-        <v>0.94442470762594033</v>
+        <v>0.93898197495035829</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -5895,34 +5895,34 @@
         <v>44</v>
       </c>
       <c r="J29">
-        <v>0.94980750163386873</v>
+        <v>0.94340433583615224</v>
       </c>
       <c r="K29">
-        <v>0.94692404991645351</v>
+        <v>0.94078465691078739</v>
       </c>
       <c r="L29">
-        <v>0.94716026021288635</v>
+        <v>0.9416084356507638</v>
       </c>
       <c r="M29">
-        <v>0.94797664643021617</v>
+        <v>0.94255845294133433</v>
       </c>
       <c r="N29">
-        <v>0.94475656636630967</v>
+        <v>0.93916252847071546</v>
       </c>
       <c r="O29">
-        <v>0.94456746857550189</v>
+        <v>0.93902331588854537</v>
       </c>
       <c r="P29">
-        <v>0.94505822204325374</v>
+        <v>0.93897523162962726</v>
       </c>
       <c r="Q29">
-        <v>0.94418567833248968</v>
+        <v>0.93816389282896651</v>
       </c>
       <c r="R29">
-        <v>0.94221826601821634</v>
+        <v>0.93650879622935124</v>
       </c>
       <c r="S29">
-        <v>0.9406629687398057</v>
+        <v>0.93443673429220475</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -5955,34 +5955,34 @@
         <v>47</v>
       </c>
       <c r="J30">
-        <v>0.9561169889100406</v>
+        <v>0.95101964712591158</v>
       </c>
       <c r="K30">
-        <v>0.95038826198211745</v>
+        <v>0.94694110030922962</v>
       </c>
       <c r="L30">
-        <v>0.95167960881253277</v>
+        <v>0.94845237646635983</v>
       </c>
       <c r="M30">
-        <v>0.95131508100001849</v>
+        <v>0.94765738940390543</v>
       </c>
       <c r="N30">
-        <v>0.9502541554219619</v>
+        <v>0.94706224080609436</v>
       </c>
       <c r="O30">
-        <v>0.94852396175056664</v>
+        <v>0.94559072102465436</v>
       </c>
       <c r="P30">
-        <v>0.94955626300415774</v>
+        <v>0.94652200617622151</v>
       </c>
       <c r="Q30">
-        <v>0.9479887062305401</v>
+        <v>0.94427446676369919</v>
       </c>
       <c r="R30">
-        <v>0.95003842865445998</v>
+        <v>0.94749410493090169</v>
       </c>
       <c r="S30">
-        <v>0.94808202399339681</v>
+        <v>0.94431460280806689</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -6015,34 +6015,34 @@
         <v>48</v>
       </c>
       <c r="J31">
-        <v>0.95187011064895011</v>
+        <v>0.94648323215434094</v>
       </c>
       <c r="K31">
-        <v>0.95179351481652774</v>
+        <v>0.94767077187932458</v>
       </c>
       <c r="L31">
-        <v>0.94897035796185913</v>
+        <v>0.94458190850778645</v>
       </c>
       <c r="M31">
-        <v>0.94895380399934481</v>
+        <v>0.94495404927773352</v>
       </c>
       <c r="N31">
-        <v>0.94824847365064635</v>
+        <v>0.94365419145281826</v>
       </c>
       <c r="O31">
-        <v>0.94896616822639457</v>
+        <v>0.94514734388344956</v>
       </c>
       <c r="P31">
-        <v>0.94865092157965591</v>
+        <v>0.94467928723471639</v>
       </c>
       <c r="Q31">
-        <v>0.94981351244352263</v>
+        <v>0.94602656178437017</v>
       </c>
       <c r="R31">
-        <v>0.94803355792565014</v>
+        <v>0.94394035685184408</v>
       </c>
       <c r="S31">
-        <v>0.94789362599937954</v>
+        <v>0.943803121929077</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -6075,34 +6075,34 @@
         <v>49</v>
       </c>
       <c r="J32">
-        <v>0.95184077413436696</v>
+        <v>0.94596783139728657</v>
       </c>
       <c r="K32">
-        <v>0.94911933282460348</v>
+        <v>0.94381890609131669</v>
       </c>
       <c r="L32">
-        <v>0.94919924365907427</v>
+        <v>0.9444827627235165</v>
       </c>
       <c r="M32">
-        <v>0.95005005164356571</v>
+        <v>0.94577364376926631</v>
       </c>
       <c r="N32">
-        <v>0.94883335634863208</v>
+        <v>0.94411561043336267</v>
       </c>
       <c r="O32">
-        <v>0.94806609347121462</v>
+        <v>0.94371395918662149</v>
       </c>
       <c r="P32">
-        <v>0.94588444370320701</v>
+        <v>0.94161922624872596</v>
       </c>
       <c r="Q32">
-        <v>0.94712748898696564</v>
+        <v>0.94227901811970349</v>
       </c>
       <c r="R32">
-        <v>0.94626855671005261</v>
+        <v>0.94182026941370778</v>
       </c>
       <c r="S32">
-        <v>0.94631839385869254</v>
+        <v>0.94114557040927538</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -6135,34 +6135,34 @@
         <v>50</v>
       </c>
       <c r="J33">
-        <v>0.95314519212295523</v>
+        <v>0.94723378851493467</v>
       </c>
       <c r="K33">
-        <v>0.94793158828504598</v>
+        <v>0.94259134823075519</v>
       </c>
       <c r="L33">
-        <v>0.95049967763554777</v>
+        <v>0.94588028056274398</v>
       </c>
       <c r="M33">
-        <v>0.94863185555796592</v>
+        <v>0.94335676826522097</v>
       </c>
       <c r="N33">
-        <v>0.9466833842486283</v>
+        <v>0.94184700427343326</v>
       </c>
       <c r="O33">
-        <v>0.9461904565779381</v>
+        <v>0.94082200999682952</v>
       </c>
       <c r="P33">
-        <v>0.94582886210874695</v>
+        <v>0.94067921777974239</v>
       </c>
       <c r="Q33">
-        <v>0.94536718798032648</v>
+        <v>0.94030798830518503</v>
       </c>
       <c r="R33">
-        <v>0.94427662036264803</v>
+        <v>0.93918154087208872</v>
       </c>
       <c r="S33">
-        <v>0.94362449309434804</v>
+        <v>0.93811582498558288</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -6195,34 +6195,34 @@
         <v>53</v>
       </c>
       <c r="J34">
-        <v>0.95133132170542456</v>
+        <v>0.94627080075219472</v>
       </c>
       <c r="K34">
-        <v>0.94457046380725396</v>
+        <v>0.94070606181614658</v>
       </c>
       <c r="L34">
-        <v>0.94670242887588685</v>
+        <v>0.94346222014557179</v>
       </c>
       <c r="M34">
-        <v>0.94579312731022369</v>
+        <v>0.94214505618409761</v>
       </c>
       <c r="N34">
-        <v>0.94415097797107483</v>
+        <v>0.94077877598099269</v>
       </c>
       <c r="O34">
-        <v>0.94284756040605788</v>
+        <v>0.93871287210478438</v>
       </c>
       <c r="P34">
-        <v>0.94146849767429142</v>
+        <v>0.93773321869610538</v>
       </c>
       <c r="Q34">
-        <v>0.94216713714810008</v>
+        <v>0.93780046013342366</v>
       </c>
       <c r="R34">
-        <v>0.94169310598586264</v>
+        <v>0.93791708049616018</v>
       </c>
       <c r="S34">
-        <v>0.94164713436837977</v>
+        <v>0.93826597535885481</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -6255,34 +6255,34 @@
         <v>54</v>
       </c>
       <c r="J35">
-        <v>0.94623348229820581</v>
+        <v>0.93953093593640624</v>
       </c>
       <c r="K35">
-        <v>0.94624861954136386</v>
+        <v>0.94161698095491253</v>
       </c>
       <c r="L35">
-        <v>0.94247072546096788</v>
+        <v>0.93679601424191772</v>
       </c>
       <c r="M35">
-        <v>0.94117226284464117</v>
+        <v>0.93567382405111277</v>
       </c>
       <c r="N35">
-        <v>0.94178941890080681</v>
+        <v>0.93667893499058241</v>
       </c>
       <c r="O35">
-        <v>0.94080243309333889</v>
+        <v>0.93588369304500896</v>
       </c>
       <c r="P35">
-        <v>0.94255138966703955</v>
+        <v>0.93771897643128632</v>
       </c>
       <c r="Q35">
-        <v>0.94199272269520606</v>
+        <v>0.93726723396020151</v>
       </c>
       <c r="R35">
-        <v>0.94049313778027643</v>
+        <v>0.93538580091805856</v>
       </c>
       <c r="S35">
-        <v>0.93998586444761711</v>
+        <v>0.93522738189618337</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -6315,34 +6315,34 @@
         <v>55</v>
       </c>
       <c r="J36">
-        <v>0.9480373983076319</v>
+        <v>0.94204632817732292</v>
       </c>
       <c r="K36">
-        <v>0.94023840678270043</v>
+        <v>0.93418743976493168</v>
       </c>
       <c r="L36">
-        <v>0.9411932803250902</v>
+        <v>0.93549548773288105</v>
       </c>
       <c r="M36">
-        <v>0.94192101549797613</v>
+        <v>0.93673014795654741</v>
       </c>
       <c r="N36">
-        <v>0.94191221034371619</v>
+        <v>0.93665506900925244</v>
       </c>
       <c r="O36">
-        <v>0.94022549325525528</v>
+        <v>0.93505504009284834</v>
       </c>
       <c r="P36">
-        <v>0.93972258424560007</v>
+        <v>0.93417959732287692</v>
       </c>
       <c r="Q36">
-        <v>0.93924359563598969</v>
+        <v>0.9332039714845981</v>
       </c>
       <c r="R36">
-        <v>0.93863312665777376</v>
+        <v>0.93300998966084481</v>
       </c>
       <c r="S36">
-        <v>0.93881237905800319</v>
+        <v>0.93399700434381094</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -6375,34 +6375,34 @@
         <v>56</v>
       </c>
       <c r="J37">
-        <v>0.94639720316252873</v>
+        <v>0.93950635445443575</v>
       </c>
       <c r="K37">
-        <v>0.94193252449654596</v>
+        <v>0.93590828533589143</v>
       </c>
       <c r="L37">
-        <v>0.94320699143173681</v>
+        <v>0.9374128795157709</v>
       </c>
       <c r="M37">
-        <v>0.9428824508531809</v>
+        <v>0.93718094174503574</v>
       </c>
       <c r="N37">
-        <v>0.93952637474005929</v>
+        <v>0.93340037180138591</v>
       </c>
       <c r="O37">
-        <v>0.93953292625411111</v>
+        <v>0.93342912031421743</v>
       </c>
       <c r="P37">
-        <v>0.93856410497591281</v>
+        <v>0.93297044739474944</v>
       </c>
       <c r="Q37">
-        <v>0.93795108846423536</v>
+        <v>0.93197368627722532</v>
       </c>
       <c r="R37">
-        <v>0.93677110852060519</v>
+        <v>0.93073642280985625</v>
       </c>
       <c r="S37">
-        <v>0.9355370590506108</v>
+        <v>0.92929720063716437</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -6435,34 +6435,34 @@
         <v>59</v>
       </c>
       <c r="J38">
-        <v>0.94351227087395972</v>
+        <v>0.93776397732797667</v>
       </c>
       <c r="K38">
-        <v>0.93490025544861077</v>
+        <v>0.93079401650321147</v>
       </c>
       <c r="L38">
-        <v>0.93840426749848016</v>
+        <v>0.93493002327264596</v>
       </c>
       <c r="M38">
-        <v>0.93585611005700853</v>
+        <v>0.93138430371815828</v>
       </c>
       <c r="N38">
-        <v>0.93100341871424996</v>
+        <v>0.92620371884681996</v>
       </c>
       <c r="O38">
-        <v>0.92894748464757604</v>
+        <v>0.92457677735513588</v>
       </c>
       <c r="P38">
-        <v>0.93011339624768241</v>
+        <v>0.92564081515556962</v>
       </c>
       <c r="Q38">
-        <v>0.92929303675078789</v>
+        <v>0.92446009627496439</v>
       </c>
       <c r="R38">
-        <v>0.93170183944352858</v>
+        <v>0.92751246769895423</v>
       </c>
       <c r="S38">
-        <v>0.93125076749589319</v>
+        <v>0.92710318746281761</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -6495,34 +6495,34 @@
         <v>60</v>
       </c>
       <c r="J39">
-        <v>0.93574485722649547</v>
+        <v>0.9280008523801303</v>
       </c>
       <c r="K39">
-        <v>0.93470831892609463</v>
+        <v>0.92998536920837582</v>
       </c>
       <c r="L39">
-        <v>0.9309815422367872</v>
+        <v>0.92506333665889717</v>
       </c>
       <c r="M39">
-        <v>0.92962719380462222</v>
+        <v>0.92360670550389479</v>
       </c>
       <c r="N39">
-        <v>0.92933362828946142</v>
+        <v>0.92357576968696975</v>
       </c>
       <c r="O39">
-        <v>0.93021273496597556</v>
+        <v>0.92442352728218158</v>
       </c>
       <c r="P39">
-        <v>0.9302711838402753</v>
+        <v>0.92454412524794105</v>
       </c>
       <c r="Q39">
-        <v>0.9310589711271694</v>
+        <v>0.92534961498334567</v>
       </c>
       <c r="R39">
-        <v>0.92930789110837164</v>
+        <v>0.92334421624699847</v>
       </c>
       <c r="S39">
-        <v>0.92963155622485127</v>
+        <v>0.9240713286039578</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -6555,34 +6555,34 @@
         <v>61</v>
       </c>
       <c r="J40">
-        <v>0.93737877838945471</v>
+        <v>0.93040597622018106</v>
       </c>
       <c r="K40">
-        <v>0.93064128479197694</v>
+        <v>0.92434804513015945</v>
       </c>
       <c r="L40">
-        <v>0.93089342097014205</v>
+        <v>0.92394028685217988</v>
       </c>
       <c r="M40">
-        <v>0.93193491055384381</v>
+        <v>0.92513786862488567</v>
       </c>
       <c r="N40">
-        <v>0.93262933668198478</v>
+        <v>0.92651962007963307</v>
       </c>
       <c r="O40">
-        <v>0.9299051043465959</v>
+        <v>0.92317919106952173</v>
       </c>
       <c r="P40">
-        <v>0.92835783632288604</v>
+        <v>0.92146929954173007</v>
       </c>
       <c r="Q40">
-        <v>0.92854102596441535</v>
+        <v>0.92227892211312967</v>
       </c>
       <c r="R40">
-        <v>0.92609202030221138</v>
+        <v>0.91982646520620237</v>
       </c>
       <c r="S40">
-        <v>0.92728886808490096</v>
+        <v>0.92079067798307734</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -6615,34 +6615,34 @@
         <v>62</v>
       </c>
       <c r="J41">
-        <v>0.93516847817260873</v>
+        <v>0.92673923554536697</v>
       </c>
       <c r="K41">
-        <v>0.93005003129254094</v>
+        <v>0.92194674422635636</v>
       </c>
       <c r="L41">
-        <v>0.93215182765187998</v>
+        <v>0.92515140827271281</v>
       </c>
       <c r="M41">
-        <v>0.93235630470584241</v>
+        <v>0.92533202300811113</v>
       </c>
       <c r="N41">
-        <v>0.92962276611837458</v>
+        <v>0.92221373234647963</v>
       </c>
       <c r="O41">
-        <v>0.92829796958660182</v>
+        <v>0.92141858557231193</v>
       </c>
       <c r="P41">
-        <v>0.92820690230738112</v>
+        <v>0.92090065365661411</v>
       </c>
       <c r="Q41">
-        <v>0.92819026959986739</v>
+        <v>0.9207728278811379</v>
       </c>
       <c r="R41">
-        <v>0.92633652666488764</v>
+        <v>0.91899521136580831</v>
       </c>
       <c r="S41">
-        <v>0.9242409245650004</v>
+        <v>0.91708719862052213</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -6675,34 +6675,34 @@
         <v>65</v>
       </c>
       <c r="J42">
-        <v>0.96271967287240345</v>
+        <v>0.95863171390292878</v>
       </c>
       <c r="K42">
-        <v>0.95610305188591171</v>
+        <v>0.95353742080554482</v>
       </c>
       <c r="L42">
-        <v>0.95654590344683277</v>
+        <v>0.95407194694385888</v>
       </c>
       <c r="M42">
-        <v>0.95421969315943833</v>
+        <v>0.95176005866273938</v>
       </c>
       <c r="N42">
-        <v>0.95102241489209227</v>
+        <v>0.94767680964942969</v>
       </c>
       <c r="O42">
-        <v>0.94992090841451682</v>
+        <v>0.9463225102168018</v>
       </c>
       <c r="P42">
-        <v>0.94851076083031394</v>
+        <v>0.94504336208470852</v>
       </c>
       <c r="Q42">
-        <v>0.94844580121442668</v>
+        <v>0.9450201842228263</v>
       </c>
       <c r="R42">
-        <v>0.94923733482420658</v>
+        <v>0.9452951945423349</v>
       </c>
       <c r="S42">
-        <v>0.94929684932184899</v>
+        <v>0.94620080649927674</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -6735,34 +6735,34 @@
         <v>66</v>
       </c>
       <c r="J43">
-        <v>0.95663455895223659</v>
+        <v>0.95175884235519337</v>
       </c>
       <c r="K43">
-        <v>0.95374610774832747</v>
+        <v>0.95007090640302327</v>
       </c>
       <c r="L43">
-        <v>0.94999515000175694</v>
+        <v>0.94577135643140786</v>
       </c>
       <c r="M43">
-        <v>0.9477410524160963</v>
+        <v>0.94294862583519923</v>
       </c>
       <c r="N43">
-        <v>0.94953012429422301</v>
+        <v>0.94554643921271786</v>
       </c>
       <c r="O43">
-        <v>0.95031901079112491</v>
+        <v>0.94662155430648609</v>
       </c>
       <c r="P43">
-        <v>0.94904947050748167</v>
+        <v>0.94539933263903353</v>
       </c>
       <c r="Q43">
-        <v>0.95026260171005661</v>
+        <v>0.94687384141669351</v>
       </c>
       <c r="R43">
-        <v>0.94764581921474356</v>
+        <v>0.94345117516698795</v>
       </c>
       <c r="S43">
-        <v>0.94669886843705686</v>
+        <v>0.94263321563481284</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -6795,34 +6795,34 @@
         <v>67</v>
       </c>
       <c r="J44">
-        <v>0.95680052586668085</v>
+        <v>0.95137396906558702</v>
       </c>
       <c r="K44">
-        <v>0.95008850576076687</v>
+        <v>0.94505980246780086</v>
       </c>
       <c r="L44">
-        <v>0.94908779241791175</v>
+        <v>0.94466277118417386</v>
       </c>
       <c r="M44">
-        <v>0.95008693644482878</v>
+        <v>0.94585177520741459</v>
       </c>
       <c r="N44">
-        <v>0.94965109065092146</v>
+        <v>0.94497534924176596</v>
       </c>
       <c r="O44">
-        <v>0.94796003551767438</v>
+        <v>0.94335932745218365</v>
       </c>
       <c r="P44">
-        <v>0.94617861985062313</v>
+        <v>0.94109098889038945</v>
       </c>
       <c r="Q44">
-        <v>0.9463556044570276</v>
+        <v>0.94180901534793204</v>
       </c>
       <c r="R44">
-        <v>0.94568186697055734</v>
+        <v>0.94104997974993554</v>
       </c>
       <c r="S44">
-        <v>0.94503763226954562</v>
+        <v>0.94013110229215169</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -6855,34 +6855,34 @@
         <v>68</v>
       </c>
       <c r="J45">
-        <v>0.9547334861812099</v>
+        <v>0.94873963148640061</v>
       </c>
       <c r="K45">
-        <v>0.95029552171714715</v>
+        <v>0.94530371632172927</v>
       </c>
       <c r="L45">
-        <v>0.95208091374686021</v>
+        <v>0.94724027817364009</v>
       </c>
       <c r="M45">
-        <v>0.94977172291703194</v>
+        <v>0.94493453706891684</v>
       </c>
       <c r="N45">
-        <v>0.9475914567929451</v>
+        <v>0.94177842977162196</v>
       </c>
       <c r="O45">
-        <v>0.94594776667332525</v>
+        <v>0.94079962147933371</v>
       </c>
       <c r="P45">
-        <v>0.94590777330380948</v>
+        <v>0.94039523861066932</v>
       </c>
       <c r="Q45">
-        <v>0.94558937277617727</v>
+        <v>0.94032693007150048</v>
       </c>
       <c r="R45">
-        <v>0.94473260834235229</v>
+        <v>0.93938179716477022</v>
       </c>
       <c r="S45">
-        <v>0.94299057992672941</v>
+        <v>0.93738464399742194</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -6915,34 +6915,34 @@
         <v>71</v>
       </c>
       <c r="J46">
-        <v>0.95911468847332859</v>
+        <v>0.95463266449672191</v>
       </c>
       <c r="K46">
-        <v>0.95208269115621347</v>
+        <v>0.94859219387481908</v>
       </c>
       <c r="L46">
-        <v>0.95192018125466904</v>
+        <v>0.94903087681054166</v>
       </c>
       <c r="M46">
-        <v>0.95063372024877923</v>
+        <v>0.94749024260496961</v>
       </c>
       <c r="N46">
-        <v>0.94759505094561747</v>
+        <v>0.94400439334840403</v>
       </c>
       <c r="O46">
-        <v>0.94601127406975716</v>
+        <v>0.94275579997080916</v>
       </c>
       <c r="P46">
-        <v>0.94526879511107553</v>
+        <v>0.94201180349952096</v>
       </c>
       <c r="Q46">
-        <v>0.94593123760551512</v>
+        <v>0.94193035658060631</v>
       </c>
       <c r="R46">
-        <v>0.94373402797006001</v>
+        <v>0.94004371547511634</v>
       </c>
       <c r="S46">
-        <v>0.94249808189548379</v>
+        <v>0.93899193055118479</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -6975,34 +6975,34 @@
         <v>72</v>
       </c>
       <c r="J47">
-        <v>0.95362653242047202</v>
+        <v>0.9482142946510641</v>
       </c>
       <c r="K47">
-        <v>0.95014501402628082</v>
+        <v>0.94646055314602828</v>
       </c>
       <c r="L47">
-        <v>0.94683101786765633</v>
+        <v>0.94236152876801949</v>
       </c>
       <c r="M47">
-        <v>0.94544452872411799</v>
+        <v>0.94120233082386007</v>
       </c>
       <c r="N47">
-        <v>0.94649608737232871</v>
+        <v>0.9420518605927849</v>
       </c>
       <c r="O47">
-        <v>0.94748816055928464</v>
+        <v>0.9434044930293729</v>
       </c>
       <c r="P47">
-        <v>0.948055006457454</v>
+        <v>0.94411350314114184</v>
       </c>
       <c r="Q47">
-        <v>0.94755814684213535</v>
+        <v>0.94352020335826059</v>
       </c>
       <c r="R47">
-        <v>0.94586906669064741</v>
+        <v>0.94195284816067015</v>
       </c>
       <c r="S47">
-        <v>0.94413955366354863</v>
+        <v>0.93987166089827678</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -7035,34 +7035,34 @@
         <v>73</v>
       </c>
       <c r="J48">
-        <v>0.9548120935997767</v>
+        <v>0.94922010284496705</v>
       </c>
       <c r="K48">
-        <v>0.94645140647952875</v>
+        <v>0.94039663967183817</v>
       </c>
       <c r="L48">
-        <v>0.94752475173345241</v>
+        <v>0.94214676181856161</v>
       </c>
       <c r="M48">
-        <v>0.94822504218950354</v>
+        <v>0.94395189337749441</v>
       </c>
       <c r="N48">
-        <v>0.94823537309430983</v>
+        <v>0.94358344629716606</v>
       </c>
       <c r="O48">
-        <v>0.94535835319678385</v>
+        <v>0.94065868300294186</v>
       </c>
       <c r="P48">
-        <v>0.94356038147795818</v>
+        <v>0.93836042743709291</v>
       </c>
       <c r="Q48">
-        <v>0.94552182648483829</v>
+        <v>0.94028734460909125</v>
       </c>
       <c r="R48">
-        <v>0.94386981516509993</v>
+        <v>0.93858742085290747</v>
       </c>
       <c r="S48">
-        <v>0.94457624582686273</v>
+        <v>0.93925358862279273</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -7095,34 +7095,34 @@
         <v>74</v>
       </c>
       <c r="J49">
-        <v>0.95221936259711581</v>
+        <v>0.94575608171978509</v>
       </c>
       <c r="K49">
-        <v>0.94678017150632099</v>
+        <v>0.94031979541318933</v>
       </c>
       <c r="L49">
-        <v>0.94826409839500003</v>
+        <v>0.9430757702319631</v>
       </c>
       <c r="M49">
-        <v>0.94785863874564036</v>
+        <v>0.94270607002298867</v>
       </c>
       <c r="N49">
-        <v>0.94535931969102593</v>
+        <v>0.93975614646725869</v>
       </c>
       <c r="O49">
-        <v>0.94486582506335093</v>
+        <v>0.93937088420998605</v>
       </c>
       <c r="P49">
-        <v>0.94538874317094879</v>
+        <v>0.93989256248927011</v>
       </c>
       <c r="Q49">
-        <v>0.94375564038594195</v>
+        <v>0.93810876492724482</v>
       </c>
       <c r="R49">
-        <v>0.94228088780734143</v>
+        <v>0.93660014411636938</v>
       </c>
       <c r="S49">
-        <v>0.94138031554853618</v>
+        <v>0.93589408987991141</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -7155,34 +7155,34 @@
         <v>77</v>
       </c>
       <c r="J50">
-        <v>0.95080963524395701</v>
+        <v>0.94507752144785595</v>
       </c>
       <c r="K50">
-        <v>0.94363057755455448</v>
+        <v>0.9403346802604019</v>
       </c>
       <c r="L50">
-        <v>0.94511290585308294</v>
+        <v>0.94211909000210048</v>
       </c>
       <c r="M50">
-        <v>0.93905061799537159</v>
+        <v>0.93599334544591517</v>
       </c>
       <c r="N50">
-        <v>0.93971771318909914</v>
+        <v>0.93568786377565383</v>
       </c>
       <c r="O50">
-        <v>0.93804578166400443</v>
+        <v>0.93428645645827602</v>
       </c>
       <c r="P50">
-        <v>0.9382914133914797</v>
+        <v>0.93387069777690701</v>
       </c>
       <c r="Q50">
-        <v>0.93805763627145067</v>
+        <v>0.93384846141995259</v>
       </c>
       <c r="R50">
-        <v>0.93706266143245798</v>
+        <v>0.93312346269792845</v>
       </c>
       <c r="S50">
-        <v>0.93725152173111781</v>
+        <v>0.93355931725408647</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -7215,34 +7215,34 @@
         <v>78</v>
       </c>
       <c r="J51">
-        <v>0.94752432773239825</v>
+        <v>0.94112577616648918</v>
       </c>
       <c r="K51">
-        <v>0.9430476880973826</v>
+        <v>0.93754911593736179</v>
       </c>
       <c r="L51">
-        <v>0.94141206301258107</v>
+        <v>0.93642388129645049</v>
       </c>
       <c r="M51">
-        <v>0.93934476096398312</v>
+        <v>0.9342073417719915</v>
       </c>
       <c r="N51">
-        <v>0.94090216786184533</v>
+        <v>0.93542299197561463</v>
       </c>
       <c r="O51">
-        <v>0.94227250962052944</v>
+        <v>0.93720579653114588</v>
       </c>
       <c r="P51">
-        <v>0.94010736542333551</v>
+        <v>0.93579554893259076</v>
       </c>
       <c r="Q51">
-        <v>0.9396567218160895</v>
+        <v>0.93472559055502336</v>
       </c>
       <c r="R51">
-        <v>0.93856383683836853</v>
+        <v>0.93432838600564494</v>
       </c>
       <c r="S51">
-        <v>0.9363012987406667</v>
+        <v>0.93127731029826111</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -7275,34 +7275,34 @@
         <v>79</v>
       </c>
       <c r="J52">
-        <v>0.94831814753630239</v>
+        <v>0.94178326674584179</v>
       </c>
       <c r="K52">
-        <v>0.94191968276289173</v>
+        <v>0.93611507192724774</v>
       </c>
       <c r="L52">
-        <v>0.94039754850032575</v>
+        <v>0.93488304751826634</v>
       </c>
       <c r="M52">
-        <v>0.94210881805485114</v>
+        <v>0.93696519672927969</v>
       </c>
       <c r="N52">
-        <v>0.94221504369233011</v>
+        <v>0.93706114341775182</v>
       </c>
       <c r="O52">
-        <v>0.93995592925173121</v>
+        <v>0.93448197965139457</v>
       </c>
       <c r="P52">
-        <v>0.93868897510327531</v>
+        <v>0.93314308497981069</v>
       </c>
       <c r="Q52">
-        <v>0.93879961558325054</v>
+        <v>0.93318874518009609</v>
       </c>
       <c r="R52">
-        <v>0.93744267065134501</v>
+        <v>0.93232952620367315</v>
       </c>
       <c r="S52">
-        <v>0.93790309199912913</v>
+        <v>0.93174981460492112</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -7335,34 +7335,34 @@
         <v>80</v>
       </c>
       <c r="J53">
-        <v>0.94467348139195761</v>
+        <v>0.93782203406300169</v>
       </c>
       <c r="K53">
-        <v>0.93802143014555672</v>
+        <v>0.93138165139877693</v>
       </c>
       <c r="L53">
-        <v>0.94172253269396966</v>
+        <v>0.9360164768836674</v>
       </c>
       <c r="M53">
-        <v>0.94074335941178222</v>
+        <v>0.93477203285220745</v>
       </c>
       <c r="N53">
-        <v>0.93861068386908553</v>
+        <v>0.93257187647810924</v>
       </c>
       <c r="O53">
-        <v>0.93817794775564911</v>
+        <v>0.93203172768644482</v>
       </c>
       <c r="P53">
-        <v>0.93779886238006704</v>
+        <v>0.93162291375841177</v>
       </c>
       <c r="Q53">
-        <v>0.9365355049429076</v>
+        <v>0.93038416831603488</v>
       </c>
       <c r="R53">
-        <v>0.93451493532912766</v>
+        <v>0.92850571625341616</v>
       </c>
       <c r="S53">
-        <v>0.93349923381866751</v>
+        <v>0.92698816595111599</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -7395,34 +7395,34 @@
         <v>83</v>
       </c>
       <c r="J54">
-        <v>0.93379774426573348</v>
+        <v>0.92753205016798046</v>
       </c>
       <c r="K54">
-        <v>0.92591403311748688</v>
+        <v>0.92136571986721538</v>
       </c>
       <c r="L54">
-        <v>0.92722348239582741</v>
+        <v>0.92432980492598205</v>
       </c>
       <c r="M54">
-        <v>0.92283858605689617</v>
+        <v>0.91914897247272076</v>
       </c>
       <c r="N54">
-        <v>0.92389022022005152</v>
+        <v>0.9201677297210531</v>
       </c>
       <c r="O54">
-        <v>0.92266877226898769</v>
+        <v>0.91820004596876059</v>
       </c>
       <c r="P54">
-        <v>0.92234157622610713</v>
+        <v>0.91815974091269148</v>
       </c>
       <c r="Q54">
-        <v>0.92168141880992605</v>
+        <v>0.91703700820063783</v>
       </c>
       <c r="R54">
-        <v>0.92290779842119219</v>
+        <v>0.91909450954149141</v>
       </c>
       <c r="S54">
-        <v>0.9230136912854876</v>
+        <v>0.91938622589263985</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -7455,34 +7455,34 @@
         <v>84</v>
       </c>
       <c r="J55">
-        <v>0.93027918560003686</v>
+        <v>0.92303044780430377</v>
       </c>
       <c r="K55">
-        <v>0.92554901340579465</v>
+        <v>0.92086782259089117</v>
       </c>
       <c r="L55">
-        <v>0.92715613630462401</v>
+        <v>0.9227301540259869</v>
       </c>
       <c r="M55">
-        <v>0.92440821709388987</v>
+        <v>0.91968427201690128</v>
       </c>
       <c r="N55">
-        <v>0.92508381477338042</v>
+        <v>0.92043690097661157</v>
       </c>
       <c r="O55">
-        <v>0.92655569722411724</v>
+        <v>0.92208138096132941</v>
       </c>
       <c r="P55">
-        <v>0.92500994374893064</v>
+        <v>0.91994818311630033</v>
       </c>
       <c r="Q55">
-        <v>0.92451520293529532</v>
+        <v>0.91980169508900445</v>
       </c>
       <c r="R55">
-        <v>0.92310100991952293</v>
+        <v>0.91824737120883237</v>
       </c>
       <c r="S55">
-        <v>0.92140549415189699</v>
+        <v>0.91605628194641608</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -7515,34 +7515,34 @@
         <v>85</v>
       </c>
       <c r="J56">
-        <v>0.92939468615896725</v>
+        <v>0.92212062560912744</v>
       </c>
       <c r="K56">
-        <v>0.92321824818939835</v>
+        <v>0.91716859884616964</v>
       </c>
       <c r="L56">
-        <v>0.9221039571237919</v>
+        <v>0.91632149817742559</v>
       </c>
       <c r="M56">
-        <v>0.92392133649311403</v>
+        <v>0.918407883479328</v>
       </c>
       <c r="N56">
-        <v>0.92212451533191164</v>
+        <v>0.91583081547380718</v>
       </c>
       <c r="O56">
-        <v>0.92102805574711066</v>
+        <v>0.91541156418579694</v>
       </c>
       <c r="P56">
-        <v>0.92036906960166931</v>
+        <v>0.91454379492277227</v>
       </c>
       <c r="Q56">
-        <v>0.92169387531553137</v>
+        <v>0.91559761174925414</v>
       </c>
       <c r="R56">
-        <v>0.92005170127392222</v>
+        <v>0.91425288581208808</v>
       </c>
       <c r="S56">
-        <v>0.91982014334366236</v>
+        <v>0.91387180579308847</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -7575,34 +7575,34 @@
         <v>86</v>
       </c>
       <c r="J57">
-        <v>0.92815277150704856</v>
+        <v>0.91987900641919174</v>
       </c>
       <c r="K57">
-        <v>0.92383872737933748</v>
+        <v>0.9170918019868306</v>
       </c>
       <c r="L57">
-        <v>0.92505186472561796</v>
+        <v>0.91914191192238626</v>
       </c>
       <c r="M57">
-        <v>0.92159762204242268</v>
+        <v>0.91574744527883267</v>
       </c>
       <c r="N57">
-        <v>0.92005876178070489</v>
+        <v>0.91298370104039006</v>
       </c>
       <c r="O57">
-        <v>0.91974262856810074</v>
+        <v>0.91314844554417918</v>
       </c>
       <c r="P57">
-        <v>0.91861061377515218</v>
+        <v>0.9116836322521904</v>
       </c>
       <c r="Q57">
-        <v>0.91809925189126929</v>
+        <v>0.91129456862099167</v>
       </c>
       <c r="R57">
-        <v>0.91835359103297076</v>
+        <v>0.91159985953091771</v>
       </c>
       <c r="S57">
-        <v>0.91589379005088889</v>
+        <v>0.90912396010205876</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -7635,34 +7635,34 @@
         <v>89</v>
       </c>
       <c r="J58">
-        <v>0.95330374896828562</v>
+        <v>0.94834620082288346</v>
       </c>
       <c r="K58">
-        <v>0.94739678802065086</v>
+        <v>0.94362250085931842</v>
       </c>
       <c r="L58">
-        <v>0.95004674196471905</v>
+        <v>0.94633631081590253</v>
       </c>
       <c r="M58">
-        <v>0.94632925745182739</v>
+        <v>0.94236409653890241</v>
       </c>
       <c r="N58">
-        <v>0.94452462427895612</v>
+        <v>0.94075181668106067</v>
       </c>
       <c r="O58">
-        <v>0.9434822392864991</v>
+        <v>0.9392989378570582</v>
       </c>
       <c r="P58">
-        <v>0.94419719391420476</v>
+        <v>0.94022458221553462</v>
       </c>
       <c r="Q58">
-        <v>0.94246179778197703</v>
+        <v>0.93862173725491538</v>
       </c>
       <c r="R58">
-        <v>0.9438954908589654</v>
+        <v>0.9397584120278315</v>
       </c>
       <c r="S58">
-        <v>0.94328186990760832</v>
+        <v>0.93943783087045818</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -7695,34 +7695,34 @@
         <v>90</v>
       </c>
       <c r="J59">
-        <v>0.95006919036744042</v>
+        <v>0.94433284280426633</v>
       </c>
       <c r="K59">
-        <v>0.94709656688721511</v>
+        <v>0.94318769242236256</v>
       </c>
       <c r="L59">
-        <v>0.94545829345753907</v>
+        <v>0.94041826142738094</v>
       </c>
       <c r="M59">
-        <v>0.94327439813384006</v>
+        <v>0.93827911978953504</v>
       </c>
       <c r="N59">
-        <v>0.94385013022004682</v>
+        <v>0.93875033003688868</v>
       </c>
       <c r="O59">
-        <v>0.94384570020224301</v>
+        <v>0.93967692323845031</v>
       </c>
       <c r="P59">
-        <v>0.94400842375991678</v>
+        <v>0.93974774305176134</v>
       </c>
       <c r="Q59">
-        <v>0.94444042895651803</v>
+        <v>0.94005295077921469</v>
       </c>
       <c r="R59">
-        <v>0.94298584792238438</v>
+        <v>0.93844842667789574</v>
       </c>
       <c r="S59">
-        <v>0.94307191096608456</v>
+        <v>0.93806710096766843</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -7755,34 +7755,34 @@
         <v>91</v>
       </c>
       <c r="J60">
-        <v>0.9515276684129208</v>
+        <v>0.94550168974911108</v>
       </c>
       <c r="K60">
-        <v>0.94633072839862686</v>
+        <v>0.94070703254796428</v>
       </c>
       <c r="L60">
-        <v>0.94453033990765467</v>
+        <v>0.93933876924751081</v>
       </c>
       <c r="M60">
-        <v>0.94365342572584354</v>
+        <v>0.93853628160946745</v>
       </c>
       <c r="N60">
-        <v>0.94399326944066009</v>
+        <v>0.93880708075274444</v>
       </c>
       <c r="O60">
-        <v>0.9416398328926503</v>
+        <v>0.93644686812487776</v>
       </c>
       <c r="P60">
-        <v>0.94116154501684279</v>
+        <v>0.93569507675188723</v>
       </c>
       <c r="Q60">
-        <v>0.94032416541682862</v>
+        <v>0.93446671259792635</v>
       </c>
       <c r="R60">
-        <v>0.93939688667095367</v>
+        <v>0.93372852337412793</v>
       </c>
       <c r="S60">
-        <v>0.93814782060805246</v>
+        <v>0.93335845977935128</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -7815,34 +7815,34 @@
         <v>92</v>
       </c>
       <c r="J61">
-        <v>0.94743067011956528</v>
+        <v>0.94037935719897348</v>
       </c>
       <c r="K61">
-        <v>0.94284969045504963</v>
+        <v>0.93665273820362194</v>
       </c>
       <c r="L61">
-        <v>0.94433469252915903</v>
+        <v>0.93846543331769472</v>
       </c>
       <c r="M61">
-        <v>0.94277018299508797</v>
+        <v>0.93712512764874056</v>
       </c>
       <c r="N61">
-        <v>0.94066439105451138</v>
+        <v>0.93452378550445359</v>
       </c>
       <c r="O61">
-        <v>0.93972768093280334</v>
+        <v>0.93322421304603798</v>
       </c>
       <c r="P61">
-        <v>0.93949061458010108</v>
+        <v>0.93308792675313046</v>
       </c>
       <c r="Q61">
-        <v>0.93824751643281579</v>
+        <v>0.93210044339920661</v>
       </c>
       <c r="R61">
-        <v>0.93686613943984764</v>
+        <v>0.93086098134340223</v>
       </c>
       <c r="S61">
-        <v>0.93449573674070385</v>
+        <v>0.92898609713244429</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -7875,34 +7875,34 @@
         <v>95</v>
       </c>
       <c r="J62">
-        <v>0.95447930321015251</v>
+        <v>0.94959465478564598</v>
       </c>
       <c r="K62">
-        <v>0.94762536235012129</v>
+        <v>0.94390965278002714</v>
       </c>
       <c r="L62">
-        <v>0.95022638496646117</v>
+        <v>0.94682155351571595</v>
       </c>
       <c r="M62">
-        <v>0.94661409418924181</v>
+        <v>0.94294470171797262</v>
       </c>
       <c r="N62">
-        <v>0.94464223787936452</v>
+        <v>0.94114891210992679</v>
       </c>
       <c r="O62">
-        <v>0.94335047329334731</v>
+        <v>0.93963118496259157</v>
       </c>
       <c r="P62">
-        <v>0.94275308051631945</v>
+        <v>0.93885217034380908</v>
       </c>
       <c r="Q62">
-        <v>0.9426529804210062</v>
+        <v>0.93834497124273775</v>
       </c>
       <c r="R62">
-        <v>0.94287646806197989</v>
+        <v>0.93887015976651311</v>
       </c>
       <c r="S62">
-        <v>0.94428934643998341</v>
+        <v>0.94069256042648308</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -7935,34 +7935,34 @@
         <v>96</v>
       </c>
       <c r="J63">
-        <v>0.94893995618813842</v>
+        <v>0.94334220212209396</v>
       </c>
       <c r="K63">
-        <v>0.94722998964400507</v>
+        <v>0.94236729926251828</v>
       </c>
       <c r="L63">
-        <v>0.94423243980104099</v>
+        <v>0.93977912939573383</v>
       </c>
       <c r="M63">
-        <v>0.93926357732349897</v>
+        <v>0.93483787606381774</v>
       </c>
       <c r="N63">
-        <v>0.93713152127173416</v>
+        <v>0.93341587086575228</v>
       </c>
       <c r="O63">
-        <v>0.93724400280068854</v>
+        <v>0.9336232098681192</v>
       </c>
       <c r="P63">
-        <v>0.93609277288773551</v>
+        <v>0.93305661751114344</v>
       </c>
       <c r="Q63">
-        <v>0.93396493941040049</v>
+        <v>0.93098102845339248</v>
       </c>
       <c r="R63">
-        <v>0.93485454389636602</v>
+        <v>0.93162102513241651</v>
       </c>
       <c r="S63">
-        <v>0.9355846214125727</v>
+        <v>0.93182957963506252</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -7995,34 +7995,34 @@
         <v>97</v>
       </c>
       <c r="J64">
-        <v>0.95080712324323857</v>
+        <v>0.94483065207946226</v>
       </c>
       <c r="K64">
-        <v>0.9450468594326652</v>
+        <v>0.93923854950776775</v>
       </c>
       <c r="L64">
-        <v>0.94446461709692575</v>
+        <v>0.9386137120531709</v>
       </c>
       <c r="M64">
-        <v>0.94355914768219629</v>
+        <v>0.93872664925766369</v>
       </c>
       <c r="N64">
-        <v>0.94208757825122413</v>
+        <v>0.93723304638718108</v>
       </c>
       <c r="O64">
-        <v>0.94081123624393748</v>
+        <v>0.93584354554802673</v>
       </c>
       <c r="P64">
-        <v>0.94052575497708935</v>
+        <v>0.93477163240088557</v>
       </c>
       <c r="Q64">
-        <v>0.93949654975578845</v>
+        <v>0.93373053014181073</v>
       </c>
       <c r="R64">
-        <v>0.93839913190013158</v>
+        <v>0.93265749184158542</v>
       </c>
       <c r="S64">
-        <v>0.93778972227898805</v>
+        <v>0.93183197752701452</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -8055,34 +8055,34 @@
         <v>98</v>
       </c>
       <c r="J65">
-        <v>0.94818552334215278</v>
+        <v>0.94108820206315136</v>
       </c>
       <c r="K65">
-        <v>0.94311193798340254</v>
+        <v>0.93699711154605103</v>
       </c>
       <c r="L65">
-        <v>0.94509978809592543</v>
+        <v>0.93948257173181648</v>
       </c>
       <c r="M65">
-        <v>0.94288870927745927</v>
+        <v>0.93720999444092912</v>
       </c>
       <c r="N65">
-        <v>0.94090039296893213</v>
+        <v>0.9350118730942959</v>
       </c>
       <c r="O65">
-        <v>0.93915879848591666</v>
+        <v>0.93320496370515671</v>
       </c>
       <c r="P65">
-        <v>0.93792092284547168</v>
+        <v>0.9318415892286116</v>
       </c>
       <c r="Q65">
-        <v>0.93711801864492672</v>
+        <v>0.93116387615054874</v>
       </c>
       <c r="R65">
-        <v>0.9362058762704949</v>
+        <v>0.93002468419938278</v>
       </c>
       <c r="S65">
-        <v>0.93505645857278463</v>
+        <v>0.92832309932309953</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -8115,34 +8115,34 @@
         <v>101</v>
       </c>
       <c r="J66">
-        <v>0.94731600073305988</v>
+        <v>0.94172956072337832</v>
       </c>
       <c r="K66">
-        <v>0.94184695406192043</v>
+        <v>0.93777999179285099</v>
       </c>
       <c r="L66">
-        <v>0.94373488042123355</v>
+        <v>0.94043865844020635</v>
       </c>
       <c r="M66">
-        <v>0.93877076542198057</v>
+        <v>0.93493843170511215</v>
       </c>
       <c r="N66">
-        <v>0.93709741756720022</v>
+        <v>0.9330468842773264</v>
       </c>
       <c r="O66">
-        <v>0.9361377807250415</v>
+        <v>0.93250034183111208</v>
       </c>
       <c r="P66">
-        <v>0.93675383073097607</v>
+        <v>0.9327249786003301</v>
       </c>
       <c r="Q66">
-        <v>0.93382148036443147</v>
+        <v>0.92900794651178775</v>
       </c>
       <c r="R66">
-        <v>0.93380138696543147</v>
+        <v>0.92956578678249624</v>
       </c>
       <c r="S66">
-        <v>0.93659136991651326</v>
+        <v>0.93247857453394889</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -8175,34 +8175,34 @@
         <v>102</v>
       </c>
       <c r="J67">
-        <v>0.9444148993957695</v>
+        <v>0.93787677918236756</v>
       </c>
       <c r="K67">
-        <v>0.94020006286111979</v>
+        <v>0.93477026764161297</v>
       </c>
       <c r="L67">
-        <v>0.9377257684777095</v>
+        <v>0.93243405449159</v>
       </c>
       <c r="M67">
-        <v>0.93646573842250214</v>
+        <v>0.93098944236331271</v>
       </c>
       <c r="N67">
-        <v>0.93653531837328707</v>
+        <v>0.93182203245982143</v>
       </c>
       <c r="O67">
-        <v>0.93857919399409162</v>
+        <v>0.93430111035361862</v>
       </c>
       <c r="P67">
-        <v>0.93841360269054686</v>
+        <v>0.93335843991767964</v>
       </c>
       <c r="Q67">
-        <v>0.93832679698489196</v>
+        <v>0.9334803542392428</v>
       </c>
       <c r="R67">
-        <v>0.93490575822956701</v>
+        <v>0.92993513064391431</v>
       </c>
       <c r="S67">
-        <v>0.9356793106321486</v>
+        <v>0.93018279548620386</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -8235,34 +8235,34 @@
         <v>103</v>
       </c>
       <c r="J68">
-        <v>0.9452425904237296</v>
+        <v>0.93837227994899441</v>
       </c>
       <c r="K68">
-        <v>0.93526887625291</v>
+        <v>0.93077273965787388</v>
       </c>
       <c r="L68">
-        <v>0.93623953125463633</v>
+        <v>0.93184220218536751</v>
       </c>
       <c r="M68">
-        <v>0.93884926963372217</v>
+        <v>0.93444315338927486</v>
       </c>
       <c r="N68">
-        <v>0.93707169038971527</v>
+        <v>0.93179102269891312</v>
       </c>
       <c r="O68">
-        <v>0.93551799369444921</v>
+        <v>0.93016952578994083</v>
       </c>
       <c r="P68">
-        <v>0.93510448531716339</v>
+        <v>0.92985223519398619</v>
       </c>
       <c r="Q68">
-        <v>0.93681962886542669</v>
+        <v>0.9316303861496058</v>
       </c>
       <c r="R68">
-        <v>0.93573930287074047</v>
+        <v>0.93049699366730776</v>
       </c>
       <c r="S68">
-        <v>0.93400833289301377</v>
+        <v>0.92875254597852874</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -8295,34 +8295,34 @@
         <v>104</v>
       </c>
       <c r="J69">
-        <v>0.94225751998337715</v>
+        <v>0.9346785244154947</v>
       </c>
       <c r="K69">
-        <v>0.93699376641932564</v>
+        <v>0.93017734603955093</v>
       </c>
       <c r="L69">
-        <v>0.94142117636483402</v>
+        <v>0.93598344480318285</v>
       </c>
       <c r="M69">
-        <v>0.93847040610227128</v>
+        <v>0.93249005832432563</v>
       </c>
       <c r="N69">
-        <v>0.93728432253236493</v>
+        <v>0.93114176353796896</v>
       </c>
       <c r="O69">
-        <v>0.93767403869114041</v>
+        <v>0.93171642583991765</v>
       </c>
       <c r="P69">
-        <v>0.93489754878364539</v>
+        <v>0.92887414493408726</v>
       </c>
       <c r="Q69">
-        <v>0.93490179382946115</v>
+        <v>0.9292436672012041</v>
       </c>
       <c r="R69">
-        <v>0.93355487816551119</v>
+        <v>0.92770739884991427</v>
       </c>
       <c r="S69">
-        <v>0.93267478809593796</v>
+        <v>0.9264899561146932</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -8355,34 +8355,34 @@
         <v>107</v>
       </c>
       <c r="J70">
-        <v>0.9523294934389599</v>
+        <v>0.94739899945912553</v>
       </c>
       <c r="K70">
-        <v>0.94680608656515475</v>
+        <v>0.94274457307485804</v>
       </c>
       <c r="L70">
-        <v>0.94809971513220648</v>
+        <v>0.94472513381022294</v>
       </c>
       <c r="M70">
-        <v>0.94384296554411928</v>
+        <v>0.93987633111053126</v>
       </c>
       <c r="N70">
-        <v>0.94177010478173384</v>
+        <v>0.93735022232392895</v>
       </c>
       <c r="O70">
-        <v>0.94104618914476978</v>
+        <v>0.93720658195585205</v>
       </c>
       <c r="P70">
-        <v>0.93974772731338596</v>
+        <v>0.93540536101996208</v>
       </c>
       <c r="Q70">
-        <v>0.93825968559471307</v>
+        <v>0.93380487355884589</v>
       </c>
       <c r="R70">
-        <v>0.93886971327085278</v>
+        <v>0.9344319117216493</v>
       </c>
       <c r="S70">
-        <v>0.93995799133222768</v>
+        <v>0.93629277585094972</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -8415,34 +8415,34 @@
         <v>108</v>
       </c>
       <c r="J71">
-        <v>0.94953783006759396</v>
+        <v>0.94338331662156538</v>
       </c>
       <c r="K71">
-        <v>0.944531950108359</v>
+        <v>0.9392369931704736</v>
       </c>
       <c r="L71">
-        <v>0.94261016381447038</v>
+        <v>0.9371885910821155</v>
       </c>
       <c r="M71">
-        <v>0.93901358284296488</v>
+        <v>0.93407779902893318</v>
       </c>
       <c r="N71">
-        <v>0.9393631411969009</v>
+        <v>0.93511279795033542</v>
       </c>
       <c r="O71">
-        <v>0.94116919104515306</v>
+        <v>0.93639889650543018</v>
       </c>
       <c r="P71">
-        <v>0.94046439016374594</v>
+        <v>0.9354792272277741</v>
       </c>
       <c r="Q71">
-        <v>0.93726362179602007</v>
+        <v>0.93164469630232505</v>
       </c>
       <c r="R71">
-        <v>0.9355200356879253</v>
+        <v>0.93013150310641546</v>
       </c>
       <c r="S71">
-        <v>0.93483217017143039</v>
+        <v>0.92967785443465489</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -8475,34 +8475,34 @@
         <v>109</v>
       </c>
       <c r="J72">
-        <v>0.95128689918120013</v>
+        <v>0.94548049900364706</v>
       </c>
       <c r="K72">
-        <v>0.9437280109852435</v>
+        <v>0.93815318315692897</v>
       </c>
       <c r="L72">
-        <v>0.94092693701901142</v>
+        <v>0.93546448903112855</v>
       </c>
       <c r="M72">
-        <v>0.94017316041611643</v>
+        <v>0.93508708758944936</v>
       </c>
       <c r="N72">
-        <v>0.9401756558712937</v>
+        <v>0.93536944416760903</v>
       </c>
       <c r="O72">
-        <v>0.93734200009778246</v>
+        <v>0.93130677615852075</v>
       </c>
       <c r="P72">
-        <v>0.93599260712121124</v>
+        <v>0.92974584189170228</v>
       </c>
       <c r="Q72">
-        <v>0.93574666602313528</v>
+        <v>0.92969854842427035</v>
       </c>
       <c r="R72">
-        <v>0.93178371305491048</v>
+        <v>0.92539065098991391</v>
       </c>
       <c r="S72">
-        <v>0.9313521405165669</v>
+        <v>0.92622745284771901</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -8535,34 +8535,34 @@
         <v>110</v>
       </c>
       <c r="J73">
-        <v>0.94649143582715156</v>
+        <v>0.9404241966852982</v>
       </c>
       <c r="K73">
-        <v>0.94007427229504015</v>
+        <v>0.93388861158524905</v>
       </c>
       <c r="L73">
-        <v>0.94121804614595439</v>
+        <v>0.93536041309775364</v>
       </c>
       <c r="M73">
-        <v>0.93738456841331141</v>
+        <v>0.93185221895855375</v>
       </c>
       <c r="N73">
-        <v>0.93680689514988602</v>
+        <v>0.93099911958731274</v>
       </c>
       <c r="O73">
-        <v>0.9333766553187457</v>
+        <v>0.92704885398281434</v>
       </c>
       <c r="P73">
-        <v>0.93248967496264179</v>
+        <v>0.92684191912605174</v>
       </c>
       <c r="Q73">
-        <v>0.93240491162522476</v>
+        <v>0.92610379909798735</v>
       </c>
       <c r="R73">
-        <v>0.93075112893221679</v>
+        <v>0.92413289419870204</v>
       </c>
       <c r="S73">
-        <v>0.92929959163046383</v>
+        <v>0.92322797216552532</v>
       </c>
     </row>
   </sheetData>
